--- a/outputs-HGR-r202-archive/g__CAG-180_train.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-180_train.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,23 +606,23 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS264_1.fasta</t>
+          <t>label_UMGS264_0.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9993997655454607</v>
+        <v>0.921758684278757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003956021729872142</v>
+        <v>0.07824131508712728</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17826425779528e-13</v>
+        <v>3.170579375231453e-10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002046322814341791</v>
+        <v>3.170579375231449e-10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993997655454607</v>
+        <v>0.921758684278757</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -633,23 +633,23 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS264_2.fasta</t>
+          <t>label_UMGS264_3.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994437533945013</v>
+        <v>0.8555350836110375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00055407654990193</v>
+        <v>0.04815497212965417</v>
       </c>
       <c r="D5" t="n">
-        <v>2.222997737766971e-14</v>
+        <v>0.04815497212965417</v>
       </c>
       <c r="E5" t="n">
-        <v>2.17005557454898e-06</v>
+        <v>0.04815497212965412</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9994437533945013</v>
+        <v>0.8555350836110375</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -660,50 +660,50 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS264_7.fasta</t>
+          <t>label_UMGS264_5.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002010707086013099</v>
+        <v>0.4765839508028443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9122817127340106</v>
+        <v>0.1744720163990519</v>
       </c>
       <c r="D6" t="n">
-        <v>1.186579813212863e-11</v>
+        <v>0.1744720163990519</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08751721654552228</v>
+        <v>0.174472016399052</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9122817127340106</v>
+        <v>0.4765839508028443</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>s__CAG-180 sp004556705</t>
+          <t>s__CAG-180 sp000432435</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS264_0.fasta</t>
+          <t>label_UMGS264_4.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.921758684278757</v>
+        <v>0.9180389092050978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07824131508712728</v>
+        <v>0.08196109078447458</v>
       </c>
       <c r="D7" t="n">
-        <v>3.170579375231453e-10</v>
+        <v>5.213798665984301e-12</v>
       </c>
       <c r="E7" t="n">
-        <v>3.170579375231449e-10</v>
+        <v>5.213798665984307e-12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.921758684278757</v>
+        <v>0.9180389092050978</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -714,106 +714,25 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS264_3.fasta</t>
+          <t>label_UMGS264_6.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8555350836110375</v>
+        <v>0.8304794256252244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04815497212965417</v>
+        <v>0.1695205742139344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04815497212965417</v>
+        <v>8.042055896805006e-11</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04815497212965412</v>
+        <v>8.042055896805008e-11</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8555350836110375</v>
+        <v>0.8304794256252244</v>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp000432435</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS264_5.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.4765839508028443</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1744720163990519</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1744720163990519</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.174472016399052</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4765839508028443</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp000432435</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS264_4.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9180389092050978</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08196109078447458</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.213798665984301e-12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.213798665984307e-12</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9180389092050978</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp000432435</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS264_6.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8304794256252244</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1695205742139344</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.042055896805006e-11</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.042055896805008e-11</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.8304794256252244</v>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>s__CAG-180 sp000432435</t>
         </is>
@@ -830,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,23 +1175,23 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_13.fasta</t>
+          <t>label_UMGS230_20.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.009342709480751539</v>
+        <v>0.002495530956448581</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9906570259422899</v>
+        <v>0.9975044690435071</v>
       </c>
       <c r="D16" t="n">
-        <v>6.432176906200312e-13</v>
+        <v>2.219809160143104e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>2.645763153149085e-07</v>
+        <v>2.219809160143104e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9906570259422899</v>
+        <v>0.9975044690435071</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1283,23 +1202,23 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_31.fasta</t>
+          <t>label_UMGS230_23.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.663544041279119e-06</v>
+        <v>0.009517433936300728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999948672153817</v>
+        <v>0.9904825660636549</v>
       </c>
       <c r="D17" t="n">
-        <v>2.221125524637315e-14</v>
+        <v>2.219819780381414e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>4.692405548396329e-07</v>
+        <v>2.219819780381414e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999948672153817</v>
+        <v>0.9904825660636549</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1310,23 +1229,23 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_35.fasta</t>
+          <t>label_UMGS230_24.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.326882459248151e-06</v>
+        <v>0.007097050781527268</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999976679997623</v>
+        <v>0.9929029492184284</v>
       </c>
       <c r="D18" t="n">
-        <v>2.22069021370206e-14</v>
+        <v>2.219814368161308e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>1.005117756191819e-06</v>
+        <v>2.219814368161308e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999976679997623</v>
+        <v>0.9929029492184284</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1337,23 +1256,23 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_41.fasta</t>
+          <t>label_UMGS230_28.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.204530641616353e-10</v>
+        <v>0.006827776856564459</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999987222196486</v>
+        <v>0.9931722231433912</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220480034176624e-14</v>
+        <v>2.219814695546082e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>1.277359876233398e-06</v>
+        <v>2.219814695546082e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999987222196486</v>
+        <v>0.9931722231433912</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1364,23 +1283,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_42.fasta</t>
+          <t>label_UMGS230_38.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0005176400706079538</v>
+        <v>0.0004321967541560181</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9984457116652112</v>
+        <v>0.9995678032457996</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0005176400683270944</v>
+        <v>2.220257608215282e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0005190081958536108</v>
+        <v>2.220257608215282e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9984457116652112</v>
+        <v>0.9995678032457996</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1391,23 +1310,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_44.fasta</t>
+          <t>label_UMGS230_4.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0005490881304848603</v>
+        <v>0.00417464033877055</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9983518800736324</v>
+        <v>0.9958253596611851</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0005490881304848559</v>
+        <v>2.219813702819494e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0005499436653978282</v>
+        <v>2.219813702819494e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9983518800736324</v>
+        <v>0.9958253596611851</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1418,23 +1337,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_9.fasta</t>
+          <t>label_UMGS230_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003409652340912503</v>
+        <v>0.4496880803807456</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9996590272436239</v>
+        <v>0.5503119196117354</v>
       </c>
       <c r="D22" t="n">
-        <v>2.220341470552284e-14</v>
+        <v>3.759380569658264e-12</v>
       </c>
       <c r="E22" t="n">
-        <v>7.522262721548027e-09</v>
+        <v>3.759380569658264e-12</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9996590272436239</v>
+        <v>0.5503119196117354</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1445,23 +1364,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_20.fasta</t>
+          <t>label_UMGS230_1.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.002495530956448581</v>
+        <v>0.03759573071284097</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9975044690435071</v>
+        <v>0.9624042692871145</v>
       </c>
       <c r="D23" t="n">
-        <v>2.219809160143104e-14</v>
+        <v>2.219853378888583e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>2.219809160143104e-14</v>
+        <v>2.219853378888583e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9975044690435071</v>
+        <v>0.9624042692871145</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1472,23 +1391,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_23.fasta</t>
+          <t>label_UMGS230_15.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009517433936300728</v>
+        <v>0.01705774180630509</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9904825660636549</v>
+        <v>0.9829422581936506</v>
       </c>
       <c r="D24" t="n">
-        <v>2.219819780381414e-14</v>
+        <v>2.21983077474685e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>2.219819780381414e-14</v>
+        <v>2.21983077474685e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9904825660636549</v>
+        <v>0.9829422581936506</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1499,23 +1418,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_24.fasta</t>
+          <t>label_UMGS230_16.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.007097050781527268</v>
+        <v>0.01334215915936273</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9929029492184284</v>
+        <v>0.9866578408405928</v>
       </c>
       <c r="D25" t="n">
-        <v>2.219814368161308e-14</v>
+        <v>2.219828638808416e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>2.219814368161308e-14</v>
+        <v>2.219828638808416e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9929029492184284</v>
+        <v>0.9866578408405928</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1526,50 +1445,50 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_28.fasta</t>
+          <t>label_UMGS230_46.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.006827776856564459</v>
+        <v>0.2547914406238658</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9931722231433912</v>
+        <v>0.2484028531253781</v>
       </c>
       <c r="D26" t="n">
-        <v>2.219814695546082e-14</v>
+        <v>0.2484028531253781</v>
       </c>
       <c r="E26" t="n">
-        <v>2.219814695546082e-14</v>
+        <v>0.2484028531253781</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9931722231433912</v>
+        <v>0.2547914406238658</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>s__CAG-180 sp004556705</t>
+          <t>s__CAG-180 sp000432435</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_38.fasta</t>
+          <t>label_UMGS230_8.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0004321967541560181</v>
+        <v>0.003688359099852614</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9995678032457996</v>
+        <v>0.9963116409001029</v>
       </c>
       <c r="D27" t="n">
-        <v>2.220257608215282e-14</v>
+        <v>2.219810335348928e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>2.220257608215282e-14</v>
+        <v>2.219810335348928e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9995678032457996</v>
+        <v>0.9963116409001029</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1580,23 +1499,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_4.fasta</t>
+          <t>label_UMGS230_11.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00417464033877055</v>
+        <v>0.002121396826776109</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9958253596611851</v>
+        <v>0.9978786031731796</v>
       </c>
       <c r="D28" t="n">
-        <v>2.219813702819494e-14</v>
+        <v>2.219807861399934e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>2.219813702819494e-14</v>
+        <v>2.219807861399934e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9958253596611851</v>
+        <v>0.9978786031731796</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1607,23 +1526,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_0.fasta</t>
+          <t>label_UMGS230_12.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4496880803807456</v>
+        <v>0.003094444558663049</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5503119196117354</v>
+        <v>0.9969055554412926</v>
       </c>
       <c r="D29" t="n">
-        <v>3.759380569658264e-12</v>
+        <v>2.219810298997165e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>3.759380569658264e-12</v>
+        <v>2.219810298997165e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5503119196117354</v>
+        <v>0.9969055554412926</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1634,23 +1553,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_1.fasta</t>
+          <t>label_UMGS230_19.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.03759573071284097</v>
+        <v>0.005974349639241201</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9624042692871145</v>
+        <v>0.9940256503607143</v>
       </c>
       <c r="D30" t="n">
-        <v>2.219853378888583e-14</v>
+        <v>2.219813043479495e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>2.219853378888583e-14</v>
+        <v>2.219813043479495e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9624042692871145</v>
+        <v>0.9940256503607143</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1661,23 +1580,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_15.fasta</t>
+          <t>label_UMGS230_2.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01705774180630509</v>
+        <v>0.01146122956871288</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9829422581936506</v>
+        <v>0.9885387704312427</v>
       </c>
       <c r="D31" t="n">
-        <v>2.21983077474685e-14</v>
+        <v>2.219828116686955e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>2.21983077474685e-14</v>
+        <v>2.219828116686955e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9829422581936506</v>
+        <v>0.9885387704312427</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1688,23 +1607,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_16.fasta</t>
+          <t>label_UMGS230_25.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01334215915936273</v>
+        <v>0.001283114467782895</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9866578408405928</v>
+        <v>0.9987168855321727</v>
       </c>
       <c r="D32" t="n">
-        <v>2.219828638808416e-14</v>
+        <v>2.219807992645844e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>2.219828638808416e-14</v>
+        <v>2.219807992645844e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9866578408405928</v>
+        <v>0.9987168855321727</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1715,50 +1634,50 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_46.fasta</t>
+          <t>label_UMGS230_26.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2547914406238658</v>
+        <v>0.02077095233776613</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2484028531253781</v>
+        <v>0.9792290476621894</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2484028531253781</v>
+        <v>2.222973169330291e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2484028531253781</v>
+        <v>2.222973169330291e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2547914406238658</v>
+        <v>0.9792290476621894</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>s__CAG-180 sp000432435</t>
+          <t>s__CAG-180 sp004556705</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_8.fasta</t>
+          <t>label_UMGS230_27.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.003688359099852614</v>
+        <v>0.004036960279268606</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9963116409001029</v>
+        <v>0.995963039720687</v>
       </c>
       <c r="D34" t="n">
-        <v>2.219810335348928e-14</v>
+        <v>2.21981072683614e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>2.219810335348928e-14</v>
+        <v>2.21981072683614e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9963116409001029</v>
+        <v>0.995963039720687</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1769,23 +1688,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_11.fasta</t>
+          <t>label_UMGS230_29.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002121396826776109</v>
+        <v>0.01677949419490862</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9978786031731796</v>
+        <v>0.9832205058044133</v>
       </c>
       <c r="D35" t="n">
-        <v>2.219807861399934e-14</v>
+        <v>3.390804273258208e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>2.219807861399934e-14</v>
+        <v>3.390804273258203e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9978786031731796</v>
+        <v>0.9832205058044133</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1796,23 +1715,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_12.fasta</t>
+          <t>label_UMGS230_33.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.003094444558663049</v>
+        <v>0.004530787465813244</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9969055554412926</v>
+        <v>0.9954692125341423</v>
       </c>
       <c r="D36" t="n">
-        <v>2.219810298997165e-14</v>
+        <v>2.219814342811521e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>2.219810298997165e-14</v>
+        <v>2.219814342811521e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9969055554412926</v>
+        <v>0.9954692125341423</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1823,23 +1742,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_19.fasta</t>
+          <t>label_UMGS230_34.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.005974349639241201</v>
+        <v>0.002776933875172876</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9940256503607143</v>
+        <v>0.9972230661247828</v>
       </c>
       <c r="D37" t="n">
-        <v>2.219813043479495e-14</v>
+        <v>2.219810907129737e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>2.219813043479495e-14</v>
+        <v>2.219810907129737e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9940256503607143</v>
+        <v>0.9972230661247828</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1850,23 +1769,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_2.fasta</t>
+          <t>label_UMGS230_37.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01146122956871288</v>
+        <v>0.001041268672942218</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9885387704312427</v>
+        <v>0.9989587313270133</v>
       </c>
       <c r="D38" t="n">
-        <v>2.219828116686955e-14</v>
+        <v>2.219910408127795e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.219828116686955e-14</v>
+        <v>2.219910408127795e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9885387704312427</v>
+        <v>0.9989587313270133</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1877,23 +1796,23 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_25.fasta</t>
+          <t>label_UMGS230_40.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.001283114467782895</v>
+        <v>0.0007127277592098133</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9987168855321727</v>
+        <v>0.9992872722407458</v>
       </c>
       <c r="D39" t="n">
-        <v>2.219807992645844e-14</v>
+        <v>2.220089437572992e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>2.219807992645844e-14</v>
+        <v>2.220089437572992e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9987168855321727</v>
+        <v>0.9992872722407458</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1904,23 +1823,23 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_26.fasta</t>
+          <t>label_UMGS230_45.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02077095233776613</v>
+        <v>0.2118460270050948</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9792290476621894</v>
+        <v>0.7881539723194286</v>
       </c>
       <c r="D40" t="n">
-        <v>2.222973169330291e-14</v>
+        <v>3.377382526638053e-10</v>
       </c>
       <c r="E40" t="n">
-        <v>2.222973169330291e-14</v>
+        <v>3.377382526638051e-10</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9792290476621894</v>
+        <v>0.7881539723194286</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1931,23 +1850,23 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_27.fasta</t>
+          <t>label_UMGS230_5.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.004036960279268606</v>
+        <v>0.009204309171463754</v>
       </c>
       <c r="C41" t="n">
-        <v>0.995963039720687</v>
+        <v>0.9907956908284918</v>
       </c>
       <c r="D41" t="n">
-        <v>2.21981072683614e-14</v>
+        <v>2.219824364519016e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>2.21981072683614e-14</v>
+        <v>2.219824364519016e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.995963039720687</v>
+        <v>0.9907956908284918</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1958,23 +1877,23 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_29.fasta</t>
+          <t>label_UMGS230_10.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01677949419490862</v>
+        <v>0.01050020375896797</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9832205058044133</v>
+        <v>0.9894997962409875</v>
       </c>
       <c r="D42" t="n">
-        <v>3.390804273258208e-13</v>
+        <v>2.219826144247738e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>3.390804273258203e-13</v>
+        <v>2.219826144247738e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9832205058044133</v>
+        <v>0.9894997962409875</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1985,23 +1904,23 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_33.fasta</t>
+          <t>label_UMGS230_14.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.004530787465813244</v>
+        <v>0.005161372385159557</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9954692125341423</v>
+        <v>0.9948386276147961</v>
       </c>
       <c r="D43" t="n">
-        <v>2.219814342811521e-14</v>
+        <v>2.219814884855383e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>2.219814342811521e-14</v>
+        <v>2.219814884855383e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9954692125341423</v>
+        <v>0.9948386276147961</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2012,23 +1931,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_34.fasta</t>
+          <t>label_UMGS230_17.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.002776933875172876</v>
+        <v>0.009314894958305163</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9972230661247828</v>
+        <v>0.9906851050416504</v>
       </c>
       <c r="D44" t="n">
-        <v>2.219810907129737e-14</v>
+        <v>2.219818356875101e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>2.219810907129737e-14</v>
+        <v>2.219818356875101e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9972230661247828</v>
+        <v>0.9906851050416504</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2039,23 +1958,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_37.fasta</t>
+          <t>label_UMGS230_18.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001041268672942218</v>
+        <v>0.001049355758803162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9989587313270133</v>
+        <v>0.9989506442411524</v>
       </c>
       <c r="D45" t="n">
-        <v>2.219910408127795e-14</v>
+        <v>2.222401793782527e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>2.219910408127795e-14</v>
+        <v>2.222401793782527e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9989587313270133</v>
+        <v>0.9989506442411524</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2066,23 +1985,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_40.fasta</t>
+          <t>label_UMGS230_21.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0007127277592098133</v>
+        <v>0.007937950087805765</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9992872722407458</v>
+        <v>0.9920620499121499</v>
       </c>
       <c r="D46" t="n">
-        <v>2.220089437572992e-14</v>
+        <v>2.219815134976298e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>2.220089437572992e-14</v>
+        <v>2.219815134976298e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9992872722407458</v>
+        <v>0.9920620499121499</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2093,23 +2012,23 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_45.fasta</t>
+          <t>label_UMGS230_22.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2118460270050948</v>
+        <v>0.02708473599846339</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7881539723194286</v>
+        <v>0.972915264001492</v>
       </c>
       <c r="D47" t="n">
-        <v>3.377382526638053e-10</v>
+        <v>2.232001347058095e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>3.377382526638051e-10</v>
+        <v>2.232001347058095e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7881539723194286</v>
+        <v>0.972915264001492</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2120,23 +2039,23 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_5.fasta</t>
+          <t>label_UMGS230_3.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.009204309171463754</v>
+        <v>0.01951998600469029</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9907956908284918</v>
+        <v>0.9804800139952654</v>
       </c>
       <c r="D48" t="n">
-        <v>2.219824364519016e-14</v>
+        <v>2.219843272526851e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>2.219824364519016e-14</v>
+        <v>2.219843272526851e-14</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9907956908284918</v>
+        <v>0.9804800139952654</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2147,23 +2066,23 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_10.fasta</t>
+          <t>label_UMGS230_30.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01050020375896797</v>
+        <v>0.004048346743033409</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9894997962409875</v>
+        <v>0.9959516532569223</v>
       </c>
       <c r="D49" t="n">
-        <v>2.219826144247738e-14</v>
+        <v>2.219811571620002e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>2.219826144247738e-14</v>
+        <v>2.219811571620002e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9894997962409875</v>
+        <v>0.9959516532569223</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2174,23 +2093,23 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_14.fasta</t>
+          <t>label_UMGS230_32.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.005161372385159557</v>
+        <v>0.007108635757493984</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9948386276147961</v>
+        <v>0.9928913642424615</v>
       </c>
       <c r="D50" t="n">
-        <v>2.219814884855383e-14</v>
+        <v>2.219815056162682e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>2.219814884855383e-14</v>
+        <v>2.219815056162682e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9948386276147961</v>
+        <v>0.9928913642424615</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2201,23 +2120,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_17.fasta</t>
+          <t>label_UMGS230_36.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.009314894958305163</v>
+        <v>0.01248424768089565</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9906851050416504</v>
+        <v>0.9875157523190581</v>
       </c>
       <c r="D51" t="n">
-        <v>2.219818356875101e-14</v>
+        <v>2.304427471125785e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>2.219818356875101e-14</v>
+        <v>2.304427471125782e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9906851050416504</v>
+        <v>0.9875157523190581</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2228,23 +2147,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_18.fasta</t>
+          <t>label_UMGS230_39.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.001049355758803162</v>
+        <v>0.0007656041169762814</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9989506442411524</v>
+        <v>0.9992343958829794</v>
       </c>
       <c r="D52" t="n">
-        <v>2.222401793782527e-14</v>
+        <v>2.220159929655899e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>2.222401793782527e-14</v>
+        <v>2.220159929655899e-14</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9989506442411524</v>
+        <v>0.9992343958829794</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2255,23 +2174,23 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_21.fasta</t>
+          <t>label_UMGS230_43.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.007937950087805765</v>
+        <v>0.004031849041494407</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9920620499121499</v>
+        <v>0.9959681509571694</v>
       </c>
       <c r="D53" t="n">
-        <v>2.219815134976298e-14</v>
+        <v>6.680755955707349e-13</v>
       </c>
       <c r="E53" t="n">
-        <v>2.219815134976298e-14</v>
+        <v>6.680755955707288e-13</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9920620499121499</v>
+        <v>0.9959681509571694</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2282,23 +2201,23 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_22.fasta</t>
+          <t>label_UMGS230_6.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02708473599846339</v>
+        <v>0.04035104471865963</v>
       </c>
       <c r="C54" t="n">
-        <v>0.972915264001492</v>
+        <v>0.9596489552812959</v>
       </c>
       <c r="D54" t="n">
-        <v>2.232001347058095e-14</v>
+        <v>2.219862287249137e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>2.232001347058095e-14</v>
+        <v>2.219862287249137e-14</v>
       </c>
       <c r="F54" t="n">
-        <v>0.972915264001492</v>
+        <v>0.9596489552812959</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2309,214 +2228,25 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS230_3.fasta</t>
+          <t>label_UMGS230_7.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01951998600469029</v>
+        <v>0.001307060760753437</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9804800139952654</v>
+        <v>0.9986929392392022</v>
       </c>
       <c r="D55" t="n">
-        <v>2.219843272526851e-14</v>
+        <v>2.219808026665313e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>2.219843272526851e-14</v>
+        <v>2.219808026665313e-14</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9804800139952654</v>
+        <v>0.9986929392392022</v>
       </c>
       <c r="G55" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS230_30.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.004048346743033409</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.9959516532569223</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2.219811571620002e-14</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2.219811571620002e-14</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.9959516532569223</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS230_32.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.007108635757493984</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.9928913642424615</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2.219815056162682e-14</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.219815056162682e-14</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.9928913642424615</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS230_36.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.01248424768089565</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.9875157523190581</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2.304427471125785e-14</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2.304427471125782e-14</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.9875157523190581</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS230_39.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.0007656041169762814</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.9992343958829794</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2.220159929655899e-14</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.220159929655899e-14</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.9992343958829794</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS230_43.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.004031849041494407</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.9959681509571694</v>
-      </c>
-      <c r="D60" t="n">
-        <v>6.680755955707349e-13</v>
-      </c>
-      <c r="E60" t="n">
-        <v>6.680755955707288e-13</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.9959681509571694</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS230_6.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.04035104471865963</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.9596489552812959</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2.219862287249137e-14</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2.219862287249137e-14</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.9596489552812959</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS230_7.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.001307060760753437</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.9986929392392022</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2.219808026665313e-14</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2.219808026665313e-14</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.9986929392392022</v>
-      </c>
-      <c r="G62" t="inlineStr">
         <is>
           <t>s__CAG-180 sp004556705</t>
         </is>
@@ -2533,7 +2263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2986,23 +2716,23 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_1.fasta</t>
+          <t>label_UMGS234_0.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.485708558123983e-08</v>
+        <v>0.003083727835992208</v>
       </c>
       <c r="C17" t="n">
-        <v>2.422640361146647e-07</v>
+        <v>2.219811571896668e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999580900302466</v>
+        <v>0.9969162721639634</v>
       </c>
       <c r="E17" t="n">
-        <v>4.162284863175849e-05</v>
+        <v>2.219811571896668e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999580900302466</v>
+        <v>0.9969162721639634</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3013,23 +2743,23 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_14.fasta</t>
+          <t>label_UMGS234_13.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.310423502557728e-06</v>
+        <v>0.01193157013614811</v>
       </c>
       <c r="C18" t="n">
-        <v>8.784860296306448e-07</v>
+        <v>1.22897714615008e-10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999957909236205</v>
+        <v>0.988068429740932</v>
       </c>
       <c r="E18" t="n">
-        <v>2.016684745450537e-08</v>
+        <v>2.219823163075138e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999957909236205</v>
+        <v>0.988068429740932</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3040,23 +2770,23 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_19.fasta</t>
+          <t>label_UMGS234_15.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.155525211440622e-05</v>
+        <v>0.005792563689360389</v>
       </c>
       <c r="C19" t="n">
-        <v>3.593732719390124e-06</v>
+        <v>3.495646543608859e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999973214693759</v>
+        <v>0.9942074363105825</v>
       </c>
       <c r="E19" t="n">
-        <v>1.636321407336695e-06</v>
+        <v>2.219816084299312e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999973214693759</v>
+        <v>0.9942074363105825</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3067,23 +2797,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_2.fasta</t>
+          <t>label_UMGS234_24.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.208053409977004e-08</v>
+        <v>0.01298373529108222</v>
       </c>
       <c r="C20" t="n">
-        <v>1.11892857234394e-07</v>
+        <v>1.141569973191344e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999975868940006</v>
+        <v>0.9870161505518983</v>
       </c>
       <c r="E20" t="n">
-        <v>2.289132608010719e-06</v>
+        <v>2.219825756736377e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999975868940006</v>
+        <v>0.9870161505518983</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3094,23 +2824,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_22.fasta</t>
+          <t>label_UMGS234_30.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.611504625664924e-05</v>
+        <v>0.005083634166275314</v>
       </c>
       <c r="C21" t="n">
-        <v>3.250988512493684e-05</v>
+        <v>3.958058103495431e-12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999213749904071</v>
+        <v>0.9949163658297445</v>
       </c>
       <c r="E21" t="n">
-        <v>7.821113699027876e-11</v>
+        <v>2.219814498063956e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999213749904071</v>
+        <v>0.9949163658297445</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3121,23 +2851,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_40.fasta</t>
+          <t>label_UMGS234_31.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001198275606121157</v>
+        <v>0.00588088235064146</v>
       </c>
       <c r="C22" t="n">
-        <v>4.729821034352133e-05</v>
+        <v>4.86184631912408e-12</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999832861870171</v>
+        <v>0.9941191176444745</v>
       </c>
       <c r="E22" t="n">
-        <v>1.235887336179045e-08</v>
+        <v>2.219813352872244e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999832861870171</v>
+        <v>0.9941191176444745</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3148,23 +2878,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_42.fasta</t>
+          <t>label_UMGS234_34.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.000360956575099728</v>
+        <v>0.01217814142818111</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004365006175227593</v>
+        <v>6.455355957351407e-12</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9986242198554812</v>
+        <v>0.9878218585653414</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0005783229518962626</v>
+        <v>2.219820218900229e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9986242198554812</v>
+        <v>0.9878218585653414</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3175,23 +2905,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_48.fasta</t>
+          <t>label_UMGS234_37.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00127069431321255</v>
+        <v>0.006721769298472311</v>
       </c>
       <c r="C24" t="n">
-        <v>2.89407906517775e-05</v>
+        <v>9.448544285220552e-12</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9987003498718424</v>
+        <v>0.993278230692057</v>
       </c>
       <c r="E24" t="n">
-        <v>1.502429312725064e-08</v>
+        <v>2.219817498365336e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9987003498718424</v>
+        <v>0.993278230692057</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3202,23 +2932,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_54.fasta</t>
+          <t>label_UMGS234_45.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0009056170708556467</v>
+        <v>0.00383471675101514</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002827401971800414</v>
+        <v>1.21015425833201e-07</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9988062450602326</v>
+        <v>0.9961651622335368</v>
       </c>
       <c r="E25" t="n">
-        <v>5.397671731534992e-06</v>
+        <v>2.219811459181992e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9988062450602326</v>
+        <v>0.9961651622335368</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3229,23 +2959,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_64.fasta</t>
+          <t>label_UMGS234_46.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.411450191028145e-05</v>
+        <v>0.01390634613900291</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0002220487454996527</v>
+        <v>7.513504539472671e-11</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997438263249185</v>
+        <v>0.9860936537858399</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0427671395308e-08</v>
+        <v>2.219833900729869e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997438263249185</v>
+        <v>0.9860936537858399</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3256,23 +2986,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_72.fasta</t>
+          <t>label_UMGS234_51.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0003886327000621375</v>
+        <v>0.01026661175813167</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001603963181249697</v>
+        <v>1.033049987070985e-10</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9979534845938651</v>
+        <v>0.9897333881385412</v>
       </c>
       <c r="E27" t="n">
-        <v>5.391952482291802e-05</v>
+        <v>2.219819226817603e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9979534845938651</v>
+        <v>0.9897333881385412</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3283,23 +3013,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_73.fasta</t>
+          <t>label_UMGS234_61.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.338867534754493e-06</v>
+        <v>0.009297201441410255</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005069711118406057</v>
+        <v>1.199683059976624e-09</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9285547277962801</v>
+        <v>0.9907027973588846</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07093296222434455</v>
+        <v>2.219817180040355e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9285547277962801</v>
+        <v>0.9907027973588846</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3310,23 +3040,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_75.fasta</t>
+          <t>label_UMGS234_62.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.082453507716004e-05</v>
+        <v>0.006173041532394453</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001242319003246334</v>
+        <v>1.523719369758789e-09</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9986617257995073</v>
+        <v>0.9938269569438639</v>
       </c>
       <c r="E29" t="n">
-        <v>5.130662169180765e-06</v>
+        <v>2.219813002065441e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9986617257995073</v>
+        <v>0.9938269569438639</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3337,23 +3067,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_8.fasta</t>
+          <t>label_UMGS234_65.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.253486013858524e-06</v>
+        <v>0.007567888731010025</v>
       </c>
       <c r="C30" t="n">
-        <v>7.333195344163114e-07</v>
+        <v>4.061069253051299e-09</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9999968550630972</v>
+        <v>0.9924321072078987</v>
       </c>
       <c r="E30" t="n">
-        <v>1.581313543955845e-07</v>
+        <v>2.219817194687034e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9999968550630972</v>
+        <v>0.9924321072078987</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -3364,23 +3094,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_80.fasta</t>
+          <t>label_UMGS234_7.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.274096970974045e-08</v>
+        <v>0.003118420180593866</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0003178607856340435</v>
+        <v>4.431428357133246e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9996821095808471</v>
+        <v>0.9968815798193396</v>
       </c>
       <c r="E31" t="n">
-        <v>1.689254912417423e-08</v>
+        <v>2.219810483223078e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9996821095808471</v>
+        <v>0.9968815798193396</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -3391,23 +3121,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_84.fasta</t>
+          <t>label_UMGS234_71.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.490177234845472e-08</v>
+        <v>0.003373487249562543</v>
       </c>
       <c r="C32" t="n">
-        <v>0.000877074839361219</v>
+        <v>1.316420579738517e-08</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9991223378120108</v>
+        <v>0.9966264995862095</v>
       </c>
       <c r="E32" t="n">
-        <v>5.724468559014809e-07</v>
+        <v>2.219810917636606e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9991223378120108</v>
+        <v>0.9966264995862095</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3418,23 +3148,23 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_87.fasta</t>
+          <t>label_UMGS234_74.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.048228915229046e-13</v>
+        <v>0.03616223508396667</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001047493097573495</v>
+        <v>3.526307838009337e-10</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9989227397656205</v>
+        <v>0.9638377645633802</v>
       </c>
       <c r="E33" t="n">
-        <v>2.976713670110976e-05</v>
+        <v>2.219858754129467e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9989227397656205</v>
+        <v>0.9638377645633802</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3445,23 +3175,23 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_91.fasta</t>
+          <t>label_UMGS234_77.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.040822054421341e-09</v>
+        <v>0.01452031517845987</v>
       </c>
       <c r="C34" t="n">
-        <v>6.236381614127355e-05</v>
+        <v>2.516116599055491e-10</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9998823551391309</v>
+        <v>0.9854796845699063</v>
       </c>
       <c r="E34" t="n">
-        <v>5.527300390564622e-05</v>
+        <v>2.219826499829563e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9998823551391309</v>
+        <v>0.9854796845699063</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3472,23 +3202,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_93.fasta</t>
+          <t>label_UMGS234_81.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.908121805461942e-12</v>
+        <v>0.0005299522215315126</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0007198163899323302</v>
+        <v>5.198160460468565e-07</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9992606172766759</v>
+        <v>0.9994695279624002</v>
       </c>
       <c r="E35" t="n">
-        <v>1.956632648352417e-05</v>
+        <v>2.220152046866167e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9992606172766759</v>
+        <v>0.9994695279624002</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3499,23 +3229,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_0.fasta</t>
+          <t>label_UMGS234_85.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.003083727835992208</v>
+        <v>0.0007809140755767975</v>
       </c>
       <c r="C36" t="n">
-        <v>2.219811571896668e-14</v>
+        <v>3.997275865206977e-11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9969162721639634</v>
+        <v>0.9992190858844282</v>
       </c>
       <c r="E36" t="n">
-        <v>2.219811571896668e-14</v>
+        <v>2.220013570795754e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9969162721639634</v>
+        <v>0.9992190858844282</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3526,23 +3256,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_13.fasta</t>
+          <t>label_UMGS234_86.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01193157013614811</v>
+        <v>0.002752555205469267</v>
       </c>
       <c r="C37" t="n">
-        <v>1.22897714615008e-10</v>
+        <v>5.57342188293976e-11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.988068429740932</v>
+        <v>0.9972474447387744</v>
       </c>
       <c r="E37" t="n">
-        <v>2.219823163075138e-14</v>
+        <v>2.219811094419777e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.988068429740932</v>
+        <v>0.9972474447387744</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3553,23 +3283,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_15.fasta</t>
+          <t>label_UMGS234_90.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.005792563689360389</v>
+        <v>0.007953798333908378</v>
       </c>
       <c r="C38" t="n">
-        <v>3.495646543608859e-14</v>
+        <v>1.039339750013018e-11</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9942074363105825</v>
+        <v>0.9920462016556759</v>
       </c>
       <c r="E38" t="n">
-        <v>2.219816084299312e-14</v>
+        <v>2.219816636424693e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9942074363105825</v>
+        <v>0.9920462016556759</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3580,23 +3310,23 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_24.fasta</t>
+          <t>label_UMGS234_94.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01298373529108222</v>
+        <v>4.672623642045704e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>1.141569973191344e-07</v>
+        <v>5.81225544198662e-08</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9870161505518983</v>
+        <v>0.999953215641003</v>
       </c>
       <c r="E39" t="n">
-        <v>2.219825756736377e-14</v>
+        <v>2.220420082359156e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9870161505518983</v>
+        <v>0.999953215641003</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3607,23 +3337,23 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_30.fasta</t>
+          <t>label_UMGS234_11.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.005083634166275314</v>
+        <v>0.01472795102539991</v>
       </c>
       <c r="C40" t="n">
-        <v>3.958058103495431e-12</v>
+        <v>2.219828240755778e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9949163658297445</v>
+        <v>0.9852720489745558</v>
       </c>
       <c r="E40" t="n">
-        <v>2.219814498063956e-14</v>
+        <v>2.219828240755778e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9949163658297445</v>
+        <v>0.9852720489745558</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3634,23 +3364,23 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_31.fasta</t>
+          <t>label_UMGS234_16.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00588088235064146</v>
+        <v>0.01084125017664426</v>
       </c>
       <c r="C41" t="n">
-        <v>4.86184631912408e-12</v>
+        <v>2.219818370747779e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9941191176444745</v>
+        <v>0.9891587498233112</v>
       </c>
       <c r="E41" t="n">
-        <v>2.219813352872244e-14</v>
+        <v>2.219818370747779e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9941191176444745</v>
+        <v>0.9891587498233112</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3661,23 +3391,23 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_34.fasta</t>
+          <t>label_UMGS234_17.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01217814142818111</v>
+        <v>0.02007574712293434</v>
       </c>
       <c r="C42" t="n">
-        <v>6.455355957351407e-12</v>
+        <v>2.219839106980038e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9878218585653414</v>
+        <v>0.9799242528770213</v>
       </c>
       <c r="E42" t="n">
-        <v>2.219820218900229e-14</v>
+        <v>2.219839106980038e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9878218585653414</v>
+        <v>0.9799242528770213</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3688,23 +3418,23 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_37.fasta</t>
+          <t>label_UMGS234_20.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.006721769298472311</v>
+        <v>0.01759593045295206</v>
       </c>
       <c r="C43" t="n">
-        <v>9.448544285220552e-12</v>
+        <v>2.219835153121432e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>0.993278230692057</v>
+        <v>0.9824040695470035</v>
       </c>
       <c r="E43" t="n">
-        <v>2.219817498365336e-14</v>
+        <v>2.219835153121432e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>0.993278230692057</v>
+        <v>0.9824040695470035</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3715,23 +3445,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_45.fasta</t>
+          <t>label_UMGS234_21.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.00383471675101514</v>
+        <v>0.006726145657352508</v>
       </c>
       <c r="C44" t="n">
-        <v>1.21015425833201e-07</v>
+        <v>2.219817955549723e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9961651622335368</v>
+        <v>0.9932738543426031</v>
       </c>
       <c r="E44" t="n">
-        <v>2.219811459181992e-14</v>
+        <v>2.219817955549723e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9961651622335368</v>
+        <v>0.9932738543426031</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3742,23 +3472,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_46.fasta</t>
+          <t>label_UMGS234_25.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01390634613900291</v>
+        <v>0.00361540362905517</v>
       </c>
       <c r="C45" t="n">
-        <v>7.513504539472671e-11</v>
+        <v>2.219811772966857e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9860936537858399</v>
+        <v>0.9963845963709004</v>
       </c>
       <c r="E45" t="n">
-        <v>2.219833900729869e-14</v>
+        <v>2.219811772966857e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9860936537858399</v>
+        <v>0.9963845963709004</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3769,23 +3499,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_51.fasta</t>
+          <t>label_UMGS234_27.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01026661175813167</v>
+        <v>0.01368724117515852</v>
       </c>
       <c r="C46" t="n">
-        <v>1.033049987070985e-10</v>
+        <v>2.219829927804639e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9897333881385412</v>
+        <v>0.9863127588247971</v>
       </c>
       <c r="E46" t="n">
-        <v>2.219819226817603e-14</v>
+        <v>2.219829927804639e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9897333881385412</v>
+        <v>0.9863127588247971</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3796,23 +3526,23 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_61.fasta</t>
+          <t>label_UMGS234_28.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.009297201441410255</v>
+        <v>0.005949472781514892</v>
       </c>
       <c r="C47" t="n">
-        <v>1.199683059976624e-09</v>
+        <v>2.219814476931003e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9907027973588846</v>
+        <v>0.9940505272184408</v>
       </c>
       <c r="E47" t="n">
-        <v>2.219817180040355e-14</v>
+        <v>2.219814476931003e-14</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9907027973588846</v>
+        <v>0.9940505272184408</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3823,23 +3553,23 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_62.fasta</t>
+          <t>label_UMGS234_33.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006173041532394453</v>
+        <v>0.00571881027911357</v>
       </c>
       <c r="C48" t="n">
-        <v>1.523719369758789e-09</v>
+        <v>2.219814242164354e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9938269569438639</v>
+        <v>0.9942811897208421</v>
       </c>
       <c r="E48" t="n">
-        <v>2.219813002065441e-14</v>
+        <v>2.219814242164354e-14</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9938269569438639</v>
+        <v>0.9942811897208421</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3850,23 +3580,23 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_65.fasta</t>
+          <t>label_UMGS234_39.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.007567888731010025</v>
+        <v>0.005392742679818905</v>
       </c>
       <c r="C49" t="n">
-        <v>4.061069253051299e-09</v>
+        <v>2.219814350695588e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9924321072078987</v>
+        <v>0.9946072573201367</v>
       </c>
       <c r="E49" t="n">
-        <v>2.219817194687034e-14</v>
+        <v>2.219814350695588e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9924321072078987</v>
+        <v>0.9946072573201367</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3877,23 +3607,23 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_7.fasta</t>
+          <t>label_UMGS234_4.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.003118420180593866</v>
+        <v>0.01158538123225849</v>
       </c>
       <c r="C50" t="n">
-        <v>4.431428357133246e-14</v>
+        <v>2.219828260904851e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9968815798193396</v>
+        <v>0.9884146187676971</v>
       </c>
       <c r="E50" t="n">
-        <v>2.219810483223078e-14</v>
+        <v>2.219828260904851e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9968815798193396</v>
+        <v>0.9884146187676971</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3904,23 +3634,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_71.fasta</t>
+          <t>label_UMGS234_41.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.003373487249562543</v>
+        <v>0.008187674164874694</v>
       </c>
       <c r="C51" t="n">
-        <v>1.316420579738517e-08</v>
+        <v>2.21981534073418e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9966264995862095</v>
+        <v>0.9918123258350809</v>
       </c>
       <c r="E51" t="n">
-        <v>2.219810917636606e-14</v>
+        <v>2.21981534073418e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9966264995862095</v>
+        <v>0.9918123258350809</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3931,23 +3661,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_74.fasta</t>
+          <t>label_UMGS234_43.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.03616223508396667</v>
+        <v>0.009440963280423625</v>
       </c>
       <c r="C52" t="n">
-        <v>3.526307838009337e-10</v>
+        <v>2.21982141958008e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9638377645633802</v>
+        <v>0.990559036719532</v>
       </c>
       <c r="E52" t="n">
-        <v>2.219858754129467e-14</v>
+        <v>2.21982141958008e-14</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9638377645633802</v>
+        <v>0.990559036719532</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3958,23 +3688,23 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_77.fasta</t>
+          <t>label_UMGS234_44.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01452031517845987</v>
+        <v>0.005238856436971996</v>
       </c>
       <c r="C53" t="n">
-        <v>2.516116599055491e-10</v>
+        <v>2.219814695907807e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9854796845699063</v>
+        <v>0.9947611435629836</v>
       </c>
       <c r="E53" t="n">
-        <v>2.219826499829563e-14</v>
+        <v>2.219814695907807e-14</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9854796845699063</v>
+        <v>0.9947611435629836</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3985,23 +3715,23 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_81.fasta</t>
+          <t>label_UMGS234_50.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0005299522215315126</v>
+        <v>0.003931742918862221</v>
       </c>
       <c r="C54" t="n">
-        <v>5.198160460468565e-07</v>
+        <v>2.219811982913654e-14</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9994695279624002</v>
+        <v>0.9960682570810935</v>
       </c>
       <c r="E54" t="n">
-        <v>2.220152046866167e-14</v>
+        <v>2.219811982913654e-14</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9994695279624002</v>
+        <v>0.9960682570810935</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4012,23 +3742,23 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_85.fasta</t>
+          <t>label_UMGS234_56.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0007809140755767975</v>
+        <v>0.00665596949689432</v>
       </c>
       <c r="C55" t="n">
-        <v>3.997275865206977e-11</v>
+        <v>2.219817484068666e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9992190858844282</v>
+        <v>0.9933440305030613</v>
       </c>
       <c r="E55" t="n">
-        <v>2.220013570795754e-14</v>
+        <v>2.219817484068666e-14</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9992190858844282</v>
+        <v>0.9933440305030613</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -4039,23 +3769,23 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_86.fasta</t>
+          <t>label_UMGS234_58.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.002752555205469267</v>
+        <v>0.005359413052586038</v>
       </c>
       <c r="C56" t="n">
-        <v>5.57342188293976e-11</v>
+        <v>2.219816396708763e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9972474447387744</v>
+        <v>0.9946405869473697</v>
       </c>
       <c r="E56" t="n">
-        <v>2.219811094419777e-14</v>
+        <v>2.219816396708763e-14</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9972474447387744</v>
+        <v>0.9946405869473697</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -4066,23 +3796,23 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_90.fasta</t>
+          <t>label_UMGS234_70.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.007953798333908378</v>
+        <v>0.008912455100180489</v>
       </c>
       <c r="C57" t="n">
-        <v>1.039339750013018e-11</v>
+        <v>2.219817063044409e-14</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9920462016556759</v>
+        <v>0.9910875448997751</v>
       </c>
       <c r="E57" t="n">
-        <v>2.219816636424693e-14</v>
+        <v>2.219817063044409e-14</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9920462016556759</v>
+        <v>0.9910875448997751</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4093,23 +3823,23 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_94.fasta</t>
+          <t>label_UMGS234_76.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.672623642045704e-05</v>
+        <v>0.01031272833078823</v>
       </c>
       <c r="C58" t="n">
-        <v>5.81225544198662e-08</v>
+        <v>2.219823472223073e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>0.999953215641003</v>
+        <v>0.9896872716691674</v>
       </c>
       <c r="E58" t="n">
-        <v>2.220420082359156e-14</v>
+        <v>2.219823472223073e-14</v>
       </c>
       <c r="F58" t="n">
-        <v>0.999953215641003</v>
+        <v>0.9896872716691674</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4120,23 +3850,23 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_11.fasta</t>
+          <t>label_UMGS234_79.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01472795102539991</v>
+        <v>0.01058547287587556</v>
       </c>
       <c r="C59" t="n">
-        <v>2.219828240755778e-14</v>
+        <v>2.219827468678098e-14</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9852720489745558</v>
+        <v>0.98941452712408</v>
       </c>
       <c r="E59" t="n">
-        <v>2.219828240755778e-14</v>
+        <v>2.219827468678098e-14</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9852720489745558</v>
+        <v>0.98941452712408</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -4147,23 +3877,23 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_16.fasta</t>
+          <t>label_UMGS234_83.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01084125017664426</v>
+        <v>0.006437798062466214</v>
       </c>
       <c r="C60" t="n">
-        <v>2.219818370747779e-14</v>
+        <v>2.219814814151029e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9891587498233112</v>
+        <v>0.9935622019374895</v>
       </c>
       <c r="E60" t="n">
-        <v>2.219818370747779e-14</v>
+        <v>2.219814814151029e-14</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9891587498233112</v>
+        <v>0.9935622019374895</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4174,23 +3904,23 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_17.fasta</t>
+          <t>label_UMGS234_92.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02007574712293434</v>
+        <v>0.008595704069032506</v>
       </c>
       <c r="C61" t="n">
-        <v>2.219839106980038e-14</v>
+        <v>2.219821638077587e-14</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9799242528770213</v>
+        <v>0.9914042959309232</v>
       </c>
       <c r="E61" t="n">
-        <v>2.219839106980038e-14</v>
+        <v>2.219821638077587e-14</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9799242528770213</v>
+        <v>0.9914042959309232</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4201,23 +3931,23 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_20.fasta</t>
+          <t>label_UMGS234_10.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01759593045295206</v>
+        <v>0.002969157058913395</v>
       </c>
       <c r="C62" t="n">
-        <v>2.219835153121432e-14</v>
+        <v>8.086244075472901e-08</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9824040695470035</v>
+        <v>0.9970307620786237</v>
       </c>
       <c r="E62" t="n">
-        <v>2.219835153121432e-14</v>
+        <v>2.21981154526181e-14</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9824040695470035</v>
+        <v>0.9970307620786237</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4228,23 +3958,23 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_21.fasta</t>
+          <t>label_UMGS234_23.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.006726145657352508</v>
+        <v>0.004057411951756004</v>
       </c>
       <c r="C63" t="n">
-        <v>2.219817955549723e-14</v>
+        <v>1.139304071685286e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9932738543426031</v>
+        <v>0.99594144874415</v>
       </c>
       <c r="E63" t="n">
-        <v>2.219817955549723e-14</v>
+        <v>2.219812616324851e-14</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9932738543426031</v>
+        <v>0.99594144874415</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4255,50 +3985,50 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_25.fasta</t>
+          <t>label_UMGS234_26.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.00361540362905517</v>
+        <v>0.2679774344379873</v>
       </c>
       <c r="C64" t="n">
-        <v>2.219811772966857e-14</v>
+        <v>0.1385548038518646</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9963845963709004</v>
+        <v>3.512002325400128e-11</v>
       </c>
       <c r="E64" t="n">
-        <v>2.219811772966857e-14</v>
+        <v>0.5934677616750281</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9963845963709004</v>
+        <v>0.5934677616750281</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>s__CAG-180 sp900540295</t>
+          <t>s__CAG-180 sp900545625</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_27.fasta</t>
+          <t>label_UMGS234_29.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01368724117515852</v>
+        <v>0.005262893739816214</v>
       </c>
       <c r="C65" t="n">
-        <v>2.219829927804639e-14</v>
+        <v>1.376051435746811e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9863127588247971</v>
+        <v>0.9947357302087257</v>
       </c>
       <c r="E65" t="n">
-        <v>2.219829927804639e-14</v>
+        <v>2.219814218874332e-14</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9863127588247971</v>
+        <v>0.9947357302087257</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4309,23 +4039,23 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_28.fasta</t>
+          <t>label_UMGS234_3.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.005949472781514892</v>
+        <v>0.001283966355383109</v>
       </c>
       <c r="C66" t="n">
-        <v>2.219814476931003e-14</v>
+        <v>8.785805524924133e-07</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9940505272184408</v>
+        <v>0.9987151550640422</v>
       </c>
       <c r="E66" t="n">
-        <v>2.219814476931003e-14</v>
+        <v>2.219807282611915e-14</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9940505272184408</v>
+        <v>0.9987151550640422</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4336,23 +4066,23 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_33.fasta</t>
+          <t>label_UMGS234_35.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.00571881027911357</v>
+        <v>0.01037914542799998</v>
       </c>
       <c r="C67" t="n">
-        <v>2.219814242164354e-14</v>
+        <v>2.021665538830206e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9942811897208421</v>
+        <v>0.9896188329064389</v>
       </c>
       <c r="E67" t="n">
-        <v>2.219814242164354e-14</v>
+        <v>2.219804663238365e-14</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9942811897208421</v>
+        <v>0.9896188329064389</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4363,23 +4093,23 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_39.fasta</t>
+          <t>label_UMGS234_38.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.005392742679818905</v>
+        <v>0.005407519788249549</v>
       </c>
       <c r="C68" t="n">
-        <v>2.219814350695588e-14</v>
+        <v>2.814168272556741e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9946072573201367</v>
+        <v>0.9945896660434557</v>
       </c>
       <c r="E68" t="n">
-        <v>2.219814350695588e-14</v>
+        <v>2.219809749472673e-14</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9946072573201367</v>
+        <v>0.9945896660434557</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4390,23 +4120,23 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_4.fasta</t>
+          <t>label_UMGS234_5.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01158538123225849</v>
+        <v>0.001267433213002814</v>
       </c>
       <c r="C69" t="n">
-        <v>2.219828260904851e-14</v>
+        <v>2.724333533965864e-07</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9884146187676971</v>
+        <v>0.9987322943536215</v>
       </c>
       <c r="E69" t="n">
-        <v>2.219828260904851e-14</v>
+        <v>2.219806851292659e-14</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9884146187676971</v>
+        <v>0.9987322943536215</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4417,23 +4147,23 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_41.fasta</t>
+          <t>label_UMGS234_52.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.008187674164874694</v>
+        <v>0.007053321260292513</v>
       </c>
       <c r="C70" t="n">
-        <v>2.21981534073418e-14</v>
+        <v>8.13594885662646e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9918123258350809</v>
+        <v>0.9929385427908286</v>
       </c>
       <c r="E70" t="n">
-        <v>2.21981534073418e-14</v>
+        <v>2.219798123848083e-14</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9918123258350809</v>
+        <v>0.9929385427908286</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4444,23 +4174,23 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_43.fasta</t>
+          <t>label_UMGS234_55.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.009440963280423625</v>
+        <v>0.02529249223062966</v>
       </c>
       <c r="C71" t="n">
-        <v>2.21982141958008e-14</v>
+        <v>0.000131210716285477</v>
       </c>
       <c r="D71" t="n">
-        <v>0.990559036719532</v>
+        <v>0.9745762970530626</v>
       </c>
       <c r="E71" t="n">
-        <v>2.21982141958008e-14</v>
+        <v>2.218864388031727e-14</v>
       </c>
       <c r="F71" t="n">
-        <v>0.990559036719532</v>
+        <v>0.9745762970530626</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4471,23 +4201,23 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_44.fasta</t>
+          <t>label_UMGS234_6.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.005238856436971996</v>
+        <v>0.003343841684849179</v>
       </c>
       <c r="C72" t="n">
-        <v>2.219814695907807e-14</v>
+        <v>2.754403005207105e-08</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9947611435629836</v>
+        <v>0.9966561307710985</v>
       </c>
       <c r="E72" t="n">
-        <v>2.219814695907807e-14</v>
+        <v>2.21981220380679e-14</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9947611435629836</v>
+        <v>0.9966561307710985</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4498,23 +4228,23 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_50.fasta</t>
+          <t>label_UMGS234_66.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.003931742918862221</v>
+        <v>0.002754684473560504</v>
       </c>
       <c r="C73" t="n">
-        <v>2.219811982913654e-14</v>
+        <v>0.0002231371973590857</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9960682570810935</v>
+        <v>0.9970221783290583</v>
       </c>
       <c r="E73" t="n">
-        <v>2.219811982913654e-14</v>
+        <v>2.219888089863358e-14</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9960682570810935</v>
+        <v>0.9970221783290583</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4525,23 +4255,23 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_56.fasta</t>
+          <t>label_UMGS234_67.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.00665596949689432</v>
+        <v>0.001633455620413414</v>
       </c>
       <c r="C74" t="n">
-        <v>2.219817484068666e-14</v>
+        <v>0.0003521767156202223</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9933440305030613</v>
+        <v>0.9980143676639442</v>
       </c>
       <c r="E74" t="n">
-        <v>2.219817484068666e-14</v>
+        <v>2.219911299585146e-14</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9933440305030613</v>
+        <v>0.9980143676639442</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4552,23 +4282,23 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_58.fasta</t>
+          <t>label_UMGS234_69.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.005359413052586038</v>
+        <v>0.008989443057203677</v>
       </c>
       <c r="C75" t="n">
-        <v>2.219816396708763e-14</v>
+        <v>2.69312920557039e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9946405869473697</v>
+        <v>0.9909836256507184</v>
       </c>
       <c r="E75" t="n">
-        <v>2.219816396708763e-14</v>
+        <v>2.219728271725637e-14</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9946405869473697</v>
+        <v>0.9909836256507184</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4579,23 +4309,23 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_70.fasta</t>
+          <t>label_UMGS234_78.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.008912455100180489</v>
+        <v>0.008233532359036639</v>
       </c>
       <c r="C76" t="n">
-        <v>2.219817063044409e-14</v>
+        <v>2.50410317377943e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9910875448997751</v>
+        <v>0.9917414266092034</v>
       </c>
       <c r="E76" t="n">
-        <v>2.219817063044409e-14</v>
+        <v>2.219750307859732e-14</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9910875448997751</v>
+        <v>0.9917414266092034</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4606,23 +4336,23 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_76.fasta</t>
+          <t>label_UMGS234_89.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01031272833078823</v>
+        <v>3.316317756642531e-09</v>
       </c>
       <c r="C77" t="n">
-        <v>2.219823472223073e-14</v>
+        <v>0.001176303668817013</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9896872716691674</v>
+        <v>0.9988236930148431</v>
       </c>
       <c r="E77" t="n">
-        <v>2.219823472223073e-14</v>
+        <v>2.219807575299427e-14</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9896872716691674</v>
+        <v>0.9988236930148431</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4633,23 +4363,23 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_79.fasta</t>
+          <t>label_UMGS234_9.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01058547287587556</v>
+        <v>0.00306359768749391</v>
       </c>
       <c r="C78" t="n">
-        <v>2.219827468678098e-14</v>
+        <v>5.210211136018666e-08</v>
       </c>
       <c r="D78" t="n">
-        <v>0.98941452712408</v>
+        <v>0.9969363502103726</v>
       </c>
       <c r="E78" t="n">
-        <v>2.219827468678098e-14</v>
+        <v>2.219810481152389e-14</v>
       </c>
       <c r="F78" t="n">
-        <v>0.98941452712408</v>
+        <v>0.9969363502103726</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4660,23 +4390,23 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_83.fasta</t>
+          <t>label_UMGS234_12.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.006437798062466214</v>
+        <v>0.005714230354473212</v>
       </c>
       <c r="C79" t="n">
-        <v>2.219814814151029e-14</v>
+        <v>2.045557883014739e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9935622019374895</v>
+        <v>0.9942837240876216</v>
       </c>
       <c r="E79" t="n">
-        <v>2.219814814151029e-14</v>
+        <v>2.219811775945566e-14</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9935622019374895</v>
+        <v>0.9942837240876216</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4687,23 +4417,23 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_92.fasta</t>
+          <t>label_UMGS234_18.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.008595704069032506</v>
+        <v>0.01080012172639485</v>
       </c>
       <c r="C80" t="n">
-        <v>2.219821638077587e-14</v>
+        <v>3.606583943966021e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9914042959309232</v>
+        <v>0.9891638124341433</v>
       </c>
       <c r="E80" t="n">
-        <v>2.219821638077587e-14</v>
+        <v>2.219662676110807e-14</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9914042959309232</v>
+        <v>0.9891638124341433</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4714,23 +4444,23 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_10.fasta</t>
+          <t>label_UMGS234_32.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.002969157058913395</v>
+        <v>0.00567863507422637</v>
       </c>
       <c r="C81" t="n">
-        <v>8.086244075472901e-08</v>
+        <v>5.8440834584869e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9970307620786237</v>
+        <v>0.9942629240911667</v>
       </c>
       <c r="E81" t="n">
-        <v>2.21981154526181e-14</v>
+        <v>2.219780742948068e-14</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9970307620786237</v>
+        <v>0.9942629240911667</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4741,23 +4471,23 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_23.fasta</t>
+          <t>label_UMGS234_36.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.004057411951756004</v>
+        <v>0.003507778676652401</v>
       </c>
       <c r="C82" t="n">
-        <v>1.139304071685286e-06</v>
+        <v>0.0006803302243889936</v>
       </c>
       <c r="D82" t="n">
-        <v>0.99594144874415</v>
+        <v>0.9958118910989363</v>
       </c>
       <c r="E82" t="n">
-        <v>2.219812616324851e-14</v>
+        <v>2.219998156325568e-14</v>
       </c>
       <c r="F82" t="n">
-        <v>0.99594144874415</v>
+        <v>0.9958118910989363</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4768,50 +4498,50 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_26.fasta</t>
+          <t>label_UMGS234_47.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2679774344379873</v>
+        <v>0.004417914969170295</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1385548038518646</v>
+        <v>0.0005780193342661116</v>
       </c>
       <c r="D83" t="n">
-        <v>3.512002325400128e-11</v>
+        <v>0.9950040656965414</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5934677616750281</v>
+        <v>2.219929406673029e-14</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5934677616750281</v>
+        <v>0.9950040656965414</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>s__CAG-180 sp900545625</t>
+          <t>s__CAG-180 sp900540295</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_29.fasta</t>
+          <t>label_UMGS234_49.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.005262893739816214</v>
+        <v>0.001115689259682236</v>
       </c>
       <c r="C84" t="n">
-        <v>1.376051435746811e-06</v>
+        <v>0.0104790946290195</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9947357302087257</v>
+        <v>0.9884052161112761</v>
       </c>
       <c r="E84" t="n">
-        <v>2.219814218874332e-14</v>
+        <v>2.219629230857455e-14</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9947357302087257</v>
+        <v>0.9884052161112761</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4822,23 +4552,23 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_3.fasta</t>
+          <t>label_UMGS234_53.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.001283966355383109</v>
+        <v>0.003869983690455456</v>
       </c>
       <c r="C85" t="n">
-        <v>8.785805524924133e-07</v>
+        <v>0.003382797959413236</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9987151550640422</v>
+        <v>0.992747218350109</v>
       </c>
       <c r="E85" t="n">
-        <v>2.219807282611915e-14</v>
+        <v>2.220364100021863e-14</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9987151550640422</v>
+        <v>0.992747218350109</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4849,23 +4579,23 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_35.fasta</t>
+          <t>label_UMGS234_57.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01037914542799998</v>
+        <v>0.00364528543788243</v>
       </c>
       <c r="C86" t="n">
-        <v>2.021665538830206e-06</v>
+        <v>0.001387011417343846</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9896188329064389</v>
+        <v>0.9949677031447516</v>
       </c>
       <c r="E86" t="n">
-        <v>2.219804663238365e-14</v>
+        <v>2.220146255011445e-14</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9896188329064389</v>
+        <v>0.9949677031447516</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4876,23 +4606,23 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_38.fasta</t>
+          <t>label_UMGS234_59.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.005407519788249549</v>
+        <v>0.00453443677770971</v>
       </c>
       <c r="C87" t="n">
-        <v>2.814168272556741e-06</v>
+        <v>0.005654593473246085</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9945896660434557</v>
+        <v>0.9898109697490221</v>
       </c>
       <c r="E87" t="n">
-        <v>2.219809749472673e-14</v>
+        <v>2.220483789128598e-14</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9945896660434557</v>
+        <v>0.9898109697490221</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4903,23 +4633,23 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_5.fasta</t>
+          <t>label_UMGS234_60.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.001267433213002814</v>
+        <v>0.005876996276034678</v>
       </c>
       <c r="C88" t="n">
-        <v>2.724333533965864e-07</v>
+        <v>0.002815235941372142</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9987322943536215</v>
+        <v>0.991307767782571</v>
       </c>
       <c r="E88" t="n">
-        <v>2.219806851292659e-14</v>
+        <v>2.220272542774147e-14</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9987322943536215</v>
+        <v>0.991307767782571</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4930,23 +4660,23 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_52.fasta</t>
+          <t>label_UMGS234_63.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.007053321260292513</v>
+        <v>0.006846806843945377</v>
       </c>
       <c r="C89" t="n">
-        <v>8.13594885662646e-06</v>
+        <v>0.001440034592893776</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9929385427908286</v>
+        <v>0.9917131585631387</v>
       </c>
       <c r="E89" t="n">
-        <v>2.219798123848083e-14</v>
+        <v>2.219979065882649e-14</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9929385427908286</v>
+        <v>0.9917131585631387</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4957,23 +4687,23 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_55.fasta</t>
+          <t>label_UMGS234_68.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02529249223062966</v>
+        <v>0.0003899577106297567</v>
       </c>
       <c r="C90" t="n">
-        <v>0.000131210716285477</v>
+        <v>0.0593531361296481</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9745762970530626</v>
+        <v>0.9402569061597</v>
       </c>
       <c r="E90" t="n">
-        <v>2.218864388031727e-14</v>
+        <v>2.217082448019698e-14</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9745762970530626</v>
+        <v>0.9402569061597</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4984,23 +4714,23 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_6.fasta</t>
+          <t>label_UMGS234_82.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.003343841684849179</v>
+        <v>0.007972809031606227</v>
       </c>
       <c r="C91" t="n">
-        <v>2.754403005207105e-08</v>
+        <v>0.001453025092699107</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9966561307710985</v>
+        <v>0.9905741658756725</v>
       </c>
       <c r="E91" t="n">
-        <v>2.21981220380679e-14</v>
+        <v>2.219884139349252e-14</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9966561307710985</v>
+        <v>0.9905741658756725</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5011,23 +4741,23 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_66.fasta</t>
+          <t>label_UMGS234_88.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.002754684473560504</v>
+        <v>0.04889299828087117</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0002231371973590857</v>
+        <v>1.754414819120969e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9970221783290583</v>
+        <v>0.9510720506202439</v>
       </c>
       <c r="E92" t="n">
-        <v>2.219888089863358e-14</v>
+        <v>1.740695069372038e-05</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9970221783290583</v>
+        <v>0.9510720506202439</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5038,538 +4768,25 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS234_67.fasta</t>
+          <t>label_UMGS234_95.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.001633455620413414</v>
+        <v>0.02818218257698589</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0003521767156202223</v>
+        <v>2.51477847123315e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9980143676639442</v>
+        <v>0.971767880352186</v>
       </c>
       <c r="E93" t="n">
-        <v>2.219911299585146e-14</v>
+        <v>2.478928611585652e-05</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9980143676639442</v>
+        <v>0.971767880352186</v>
       </c>
       <c r="G93" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_69.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.008989443057203677</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2.69312920557039e-05</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.9909836256507184</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2.219728271725637e-14</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.9909836256507184</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_78.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.008233532359036639</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2.50410317377943e-05</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.9917414266092034</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2.219750307859732e-14</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.9917414266092034</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_89.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>3.316317756642531e-09</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.001176303668817013</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.9988236930148431</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2.219807575299427e-14</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.9988236930148431</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_9.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.00306359768749391</v>
-      </c>
-      <c r="C97" t="n">
-        <v>5.210211136018666e-08</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.9969363502103726</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2.219810481152389e-14</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.9969363502103726</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_12.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.005714230354473212</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.045557883014739e-06</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.9942837240876216</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2.219811775945566e-14</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.9942837240876216</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_18.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.01080012172639485</v>
-      </c>
-      <c r="C99" t="n">
-        <v>3.606583943966021e-05</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.9891638124341433</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2.219662676110807e-14</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.9891638124341433</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_32.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.00567863507422637</v>
-      </c>
-      <c r="C100" t="n">
-        <v>5.8440834584869e-05</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.9942629240911667</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2.219780742948068e-14</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.9942629240911667</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_36.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.003507778676652401</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.0006803302243889936</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.9958118910989363</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.219998156325568e-14</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.9958118910989363</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_47.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.004417914969170295</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.0005780193342661116</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.9950040656965414</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2.219929406673029e-14</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.9950040656965414</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_49.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.001115689259682236</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.0104790946290195</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.9884052161112761</v>
-      </c>
-      <c r="E103" t="n">
-        <v>2.219629230857455e-14</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.9884052161112761</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_53.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.003869983690455456</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.003382797959413236</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.992747218350109</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2.220364100021863e-14</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.992747218350109</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_57.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.00364528543788243</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.001387011417343846</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.9949677031447516</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2.220146255011445e-14</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.9949677031447516</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_59.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.00453443677770971</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.005654593473246085</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.9898109697490221</v>
-      </c>
-      <c r="E106" t="n">
-        <v>2.220483789128598e-14</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.9898109697490221</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_60.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.005876996276034678</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.002815235941372142</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.991307767782571</v>
-      </c>
-      <c r="E107" t="n">
-        <v>2.220272542774147e-14</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.991307767782571</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_63.fasta</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.006846806843945377</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.001440034592893776</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.9917131585631387</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2.219979065882649e-14</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.9917131585631387</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_68.fasta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.0003899577106297567</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.0593531361296481</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.9402569061597</v>
-      </c>
-      <c r="E109" t="n">
-        <v>2.217082448019698e-14</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.9402569061597</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_82.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.007972809031606227</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.001453025092699107</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.9905741658756725</v>
-      </c>
-      <c r="E110" t="n">
-        <v>2.219884139349252e-14</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.9905741658756725</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_88.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.04889299828087117</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.754414819120969e-05</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.9510720506202439</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.740695069372038e-05</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.9510720506202439</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900540295</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS234_95.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.02818218257698589</v>
-      </c>
-      <c r="C112" t="n">
-        <v>2.51477847123315e-05</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.971767880352186</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2.478928611585652e-05</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.971767880352186</v>
-      </c>
-      <c r="G112" t="inlineStr">
         <is>
           <t>s__CAG-180 sp900540295</t>
         </is>
@@ -5586,7 +4803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6066,23 +5283,23 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_10.fasta</t>
+          <t>label_UMGS798_1.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.002833494371943e-10</v>
+        <v>0.006703572525879624</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001775928715845974</v>
+        <v>2.219815596381921e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220347517708828e-14</v>
+        <v>2.219815596381921e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998224067281097</v>
+        <v>0.9932964274740759</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998224067281097</v>
+        <v>0.9932964274740759</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -6093,23 +5310,23 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_14.fasta</t>
+          <t>label_UMGS798_12.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.538907084924156e-07</v>
+        <v>0.000157460462974272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002551721011805184</v>
+        <v>1.358636987015205e-08</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220304368006606e-14</v>
+        <v>2.220358674892951e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997445740080889</v>
+        <v>0.9998425259506337</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997445740080889</v>
+        <v>0.9998425259506337</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -6120,23 +5337,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_19.fasta</t>
+          <t>label_UMGS798_13.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.221958879517664e-06</v>
+        <v>0.000470322137784642</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005940390718757345</v>
+        <v>4.287692650992685e-10</v>
       </c>
       <c r="D20" t="n">
-        <v>2.220115097293155e-14</v>
+        <v>2.220185336243097e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9994027389692226</v>
+        <v>0.9995296774334239</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9994027389692226</v>
+        <v>0.9995296774334239</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -6147,23 +5364,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_20.fasta</t>
+          <t>label_UMGS798_24.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.442793665959288e-05</v>
+        <v>0.0005379236139920477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002059985513862956</v>
+        <v>7.25309997259329e-09</v>
       </c>
       <c r="D21" t="n">
-        <v>2.220311750915875e-14</v>
+        <v>2.220147919659727e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999739573511932</v>
+        <v>0.9994620691328857</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999739573511932</v>
+        <v>0.9994620691328857</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -6174,23 +5391,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_22.fasta</t>
+          <t>label_UMGS798_26.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0002361802733000341</v>
+        <v>0.001636673590878238</v>
       </c>
       <c r="C22" t="n">
-        <v>5.966779120209903e-05</v>
+        <v>7.419654473137703e-10</v>
       </c>
       <c r="D22" t="n">
-        <v>2.220291795700435e-14</v>
+        <v>2.219808240009868e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997041519354756</v>
+        <v>0.9983633256671341</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997041519354756</v>
+        <v>0.9983633256671341</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -6201,23 +5418,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_23.fasta</t>
+          <t>label_UMGS798_29.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.283409483725298e-08</v>
+        <v>0.007928855903402051</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004153331864941034</v>
+        <v>7.205295315885436e-12</v>
       </c>
       <c r="D23" t="n">
-        <v>2.220215734482177e-14</v>
+        <v>2.219822215626021e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9995845839793889</v>
+        <v>0.9920711440893704</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9995845839793889</v>
+        <v>0.9920711440893704</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -6228,23 +5445,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_33.fasta</t>
+          <t>label_UMGS798_32.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.731587907114277e-09</v>
+        <v>0.002170554240027678</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002269673038824168</v>
+        <v>1.199783052428906e-09</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220320141370799e-14</v>
+        <v>2.219808217087487e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997730299645075</v>
+        <v>0.9978294445601671</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997730299645075</v>
+        <v>0.9978294445601671</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -6255,23 +5472,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_35.fasta</t>
+          <t>label_UMGS798_43.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0002348936942564842</v>
+        <v>0.000926173056893669</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002308894017063991</v>
+        <v>5.541183597632849e-08</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2323771016173637</v>
+        <v>2.21993331851305e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7671571152866734</v>
+        <v>0.9990737715312481</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7671571152866734</v>
+        <v>0.9990737715312481</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -6282,23 +5499,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_36.fasta</t>
+          <t>label_UMGS798_44.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.728079357561737e-08</v>
+        <v>0.0009892788543340489</v>
       </c>
       <c r="C26" t="n">
-        <v>1.379475944696265e-06</v>
+        <v>3.624537123154329e-08</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220445273897855e-14</v>
+        <v>2.219898499789473e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999986032432395</v>
+        <v>0.9990106849002724</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999986032432395</v>
+        <v>0.9990106849002724</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -6309,23 +5526,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_38.fasta</t>
+          <t>label_UMGS798_48.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.220446023662354e-14</v>
+        <v>0.003321769329446699</v>
       </c>
       <c r="C27" t="n">
-        <v>4.609508522156925e-08</v>
+        <v>2.997936371479919e-09</v>
       </c>
       <c r="D27" t="n">
-        <v>2.220446023662354e-14</v>
+        <v>2.219810628780128e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9999999539048703</v>
+        <v>0.9966782276725947</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9999999539048703</v>
+        <v>0.9966782276725947</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -6336,23 +5553,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_40.fasta</t>
+          <t>label_UMGS798_53.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.913465229046366e-14</v>
+        <v>0.002084115843388278</v>
       </c>
       <c r="C28" t="n">
-        <v>2.233460115013929e-06</v>
+        <v>6.70628793411385e-09</v>
       </c>
       <c r="D28" t="n">
-        <v>2.220444809439142e-14</v>
+        <v>2.219809663380114e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9999977665398037</v>
+        <v>0.9979158774503015</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9999977665398037</v>
+        <v>0.9979158774503015</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -6363,23 +5580,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_47.fasta</t>
+          <t>label_UMGS798_59.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.359878205475233e-07</v>
+        <v>0.0006185088951407189</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0005485969167876718</v>
+        <v>1.927512803681801e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220141887884523e-14</v>
+        <v>2.22010334501125e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9994511670953695</v>
+        <v>0.9993814909120858</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9994511670953695</v>
+        <v>0.9993814909120858</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -6390,23 +5607,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_63.fasta</t>
+          <t>label_UMGS798_6.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.11043409144189e-13</v>
+        <v>0.002182912690851039</v>
       </c>
       <c r="C30" t="n">
-        <v>1.409231080779816e-06</v>
+        <v>1.145826497319979e-13</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220445266973456e-14</v>
+        <v>2.219809573650183e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.999998590768286</v>
+        <v>0.9978170873090121</v>
       </c>
       <c r="F30" t="n">
-        <v>0.999998590768286</v>
+        <v>0.9978170873090121</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -6417,23 +5634,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_64.fasta</t>
+          <t>label_UMGS798_65.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.667261623393388e-12</v>
+        <v>0.004920422712274271</v>
       </c>
       <c r="C31" t="n">
-        <v>2.807845588752057e-07</v>
+        <v>1.393386170530178e-09</v>
       </c>
       <c r="D31" t="n">
-        <v>2.22044589339311e-14</v>
+        <v>2.219813114768725e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9999997192117517</v>
+        <v>0.9950795758943173</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9999997192117517</v>
+        <v>0.9950795758943173</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -6444,23 +5661,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_7.fasta</t>
+          <t>label_UMGS798_75.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.348188131992267e-09</v>
+        <v>0.002376711773231162</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002980050095080814</v>
+        <v>4.831252290144783e-11</v>
       </c>
       <c r="D32" t="n">
-        <v>2.220280769298845e-14</v>
+        <v>2.219809866961799e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9997019916422816</v>
+        <v>0.997623288178434</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9997019916422816</v>
+        <v>0.997623288178434</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -6471,23 +5688,23 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_73.fasta</t>
+          <t>label_UMGS798_76.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.047470174228713e-08</v>
+        <v>0.0003112414963697969</v>
       </c>
       <c r="C33" t="n">
-        <v>2.907193214691506e-05</v>
+        <v>5.353714382501444e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>2.220429921066585e-14</v>
+        <v>2.220273436860662e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9999709175931292</v>
+        <v>0.9996887585035545</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9999709175931292</v>
+        <v>0.9996887585035545</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -6498,23 +5715,23 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_74.fasta</t>
+          <t>label_UMGS798_9.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.22044604381705e-14</v>
+        <v>0.0002324107133692</v>
       </c>
       <c r="C34" t="n">
-        <v>9.806445269904375e-09</v>
+        <v>9.81329710019578e-10</v>
       </c>
       <c r="D34" t="n">
-        <v>2.22044604381705e-14</v>
+        <v>2.22031712480678e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9999999901935103</v>
+        <v>0.9997675883052788</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9999999901935103</v>
+        <v>0.9997675883052788</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -6525,23 +5742,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_77.fasta</t>
+          <t>label_UMGS798_11.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.984455462707105e-10</v>
+        <v>8.484452052900617e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>6.556960627250301e-05</v>
+        <v>2.220398963068735e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>2.220409663807426e-14</v>
+        <v>2.220398963068735e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9999344301952597</v>
+        <v>0.9999151554794266</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9999344301952597</v>
+        <v>0.9999151554794266</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -6552,23 +5769,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_1.fasta</t>
+          <t>label_UMGS798_17.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.006703572525879624</v>
+        <v>5.050711242844917e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>2.219815596381921e-14</v>
+        <v>2.220418016419024e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>2.219815596381921e-14</v>
+        <v>2.220418016419024e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9932964274740759</v>
+        <v>0.9999494928875271</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9932964274740759</v>
+        <v>0.9999494928875271</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -6579,23 +5796,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_12.fasta</t>
+          <t>label_UMGS798_2.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.000157460462974272</v>
+        <v>0.001207200323432729</v>
       </c>
       <c r="C37" t="n">
-        <v>1.358636987015205e-08</v>
+        <v>2.219807432676224e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>2.220358674892951e-14</v>
+        <v>2.219807432676224e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9998425259506337</v>
+        <v>0.9987927996765229</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9998425259506337</v>
+        <v>0.9987927996765229</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -6606,23 +5823,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_13.fasta</t>
+          <t>label_UMGS798_25.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.000470322137784642</v>
+        <v>0.0007509902093906793</v>
       </c>
       <c r="C38" t="n">
-        <v>4.287692650992685e-10</v>
+        <v>2.220030105516964e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.220185336243097e-14</v>
+        <v>2.220030105516964e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9995296774334239</v>
+        <v>0.9992490097905649</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9995296774334239</v>
+        <v>0.9992490097905649</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -6633,23 +5850,23 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_24.fasta</t>
+          <t>label_UMGS798_30.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0005379236139920477</v>
+        <v>0.002903028066660681</v>
       </c>
       <c r="C39" t="n">
-        <v>7.25309997259329e-09</v>
+        <v>2.219811283194634e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>2.220147919659727e-14</v>
+        <v>2.219811283194634e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9994620691328857</v>
+        <v>0.9970969719332949</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9994620691328857</v>
+        <v>0.9970969719332949</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -6660,23 +5877,23 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_26.fasta</t>
+          <t>label_UMGS798_34.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.001636673590878238</v>
+        <v>1.662392838594469e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>7.419654473137703e-10</v>
+        <v>2.220436821576464e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>2.219808240009868e-14</v>
+        <v>2.220436821576464e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9983633256671341</v>
+        <v>0.9999833760715697</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9983633256671341</v>
+        <v>0.9999833760715697</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -6687,23 +5904,23 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_29.fasta</t>
+          <t>label_UMGS798_39.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.007928855903402051</v>
+        <v>0.0002886870344410558</v>
       </c>
       <c r="C41" t="n">
-        <v>7.205295315885436e-12</v>
+        <v>2.220285934563322e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.219822215626021e-14</v>
+        <v>2.220285934563322e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9920711440893704</v>
+        <v>0.9997113129655145</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9920711440893704</v>
+        <v>0.9997113129655145</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -6714,23 +5931,23 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_32.fasta</t>
+          <t>label_UMGS798_50.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002170554240027678</v>
+        <v>0.0003067459377224859</v>
       </c>
       <c r="C42" t="n">
-        <v>1.199783052428906e-09</v>
+        <v>2.220275927769325e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>2.219808217087487e-14</v>
+        <v>2.220275927769325e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9978294445601671</v>
+        <v>0.9996932540622331</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9978294445601671</v>
+        <v>0.9996932540622331</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -6741,23 +5958,23 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_43.fasta</t>
+          <t>label_UMGS798_56.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.000926173056893669</v>
+        <v>0.0002184559631428451</v>
       </c>
       <c r="C43" t="n">
-        <v>5.541183597632849e-08</v>
+        <v>2.220324861313637e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>2.21993331851305e-14</v>
+        <v>2.220324861313637e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9990737715312481</v>
+        <v>0.9997815440368127</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9990737715312481</v>
+        <v>0.9997815440368127</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -6768,23 +5985,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_44.fasta</t>
+          <t>label_UMGS798_57.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0009892788543340489</v>
+        <v>0.0008545626083175596</v>
       </c>
       <c r="C44" t="n">
-        <v>3.624537123154329e-08</v>
+        <v>2.219972888382351e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>2.219898499789473e-14</v>
+        <v>2.219972888382351e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9990106849002724</v>
+        <v>0.999145437391638</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9990106849002724</v>
+        <v>0.999145437391638</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -6795,23 +6012,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_48.fasta</t>
+          <t>label_UMGS798_61.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.003321769329446699</v>
+        <v>0.0007314889828256996</v>
       </c>
       <c r="C45" t="n">
-        <v>2.997936371479919e-09</v>
+        <v>2.220040882700572e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>2.219810628780128e-14</v>
+        <v>2.220040882700572e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9966782276725947</v>
+        <v>0.9992685110171299</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9966782276725947</v>
+        <v>0.9992685110171299</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -6822,23 +6039,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_53.fasta</t>
+          <t>label_UMGS798_62.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.002084115843388278</v>
+        <v>0.0009556982480309424</v>
       </c>
       <c r="C46" t="n">
-        <v>6.70628793411385e-09</v>
+        <v>2.219917051923316e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>2.219809663380114e-14</v>
+        <v>2.219917051923316e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9979158774503015</v>
+        <v>0.9990443017519247</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9979158774503015</v>
+        <v>0.9990443017519247</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -6849,23 +6066,23 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_59.fasta</t>
+          <t>label_UMGS798_67.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0006185088951407189</v>
+        <v>0.01040950935540367</v>
       </c>
       <c r="C47" t="n">
-        <v>1.927512803681801e-10</v>
+        <v>2.219821941573443e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>2.22010334501125e-14</v>
+        <v>2.219821941573443e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9993814909120858</v>
+        <v>0.989590490644552</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9993814909120858</v>
+        <v>0.989590490644552</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -6876,23 +6093,23 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_6.fasta</t>
+          <t>label_UMGS798_72.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.002182912690851039</v>
+        <v>0.002835044973881523</v>
       </c>
       <c r="C48" t="n">
-        <v>1.145826497319979e-13</v>
+        <v>2.219811271526298e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>2.219809573650183e-14</v>
+        <v>2.219811271526298e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9978170873090121</v>
+        <v>0.9971649550260742</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9978170873090121</v>
+        <v>0.9971649550260742</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -6903,23 +6120,23 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_65.fasta</t>
+          <t>label_UMGS798_8.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.004920422712274271</v>
+        <v>5.391907652969794e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>1.393386170530178e-09</v>
+        <v>2.220416122991851e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>2.219813114768725e-14</v>
+        <v>2.220416122991851e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9950795758943173</v>
+        <v>0.999946080923426</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9950795758943173</v>
+        <v>0.999946080923426</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -6930,23 +6147,23 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_75.fasta</t>
+          <t>label_UMGS798_80.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.002376711773231162</v>
+        <v>0.00127820788455278</v>
       </c>
       <c r="C50" t="n">
-        <v>4.831252290144783e-11</v>
+        <v>2.219807237681005e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>2.219809866961799e-14</v>
+        <v>2.219807237681005e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.997623288178434</v>
+        <v>0.9987217921154027</v>
       </c>
       <c r="F50" t="n">
-        <v>0.997623288178434</v>
+        <v>0.9987217921154027</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -6957,23 +6174,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_76.fasta</t>
+          <t>label_UMGS798_82.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0003112414963697969</v>
+        <v>0.002204821558582671</v>
       </c>
       <c r="C51" t="n">
-        <v>5.353714382501444e-14</v>
+        <v>2.219808545603305e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>2.220273436860662e-14</v>
+        <v>2.219808545603305e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9996887585035545</v>
+        <v>0.9977951784413729</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9996887585035545</v>
+        <v>0.9977951784413729</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -6984,23 +6201,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_9.fasta</t>
+          <t>label_UMGS798_0.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0002324107133692</v>
+        <v>0.00147949003784813</v>
       </c>
       <c r="C52" t="n">
-        <v>9.81329710019578e-10</v>
+        <v>8.910579327270302e-07</v>
       </c>
       <c r="D52" t="n">
-        <v>2.22031712480678e-14</v>
+        <v>2.219808014401746e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9997675883052788</v>
+        <v>0.9985196189041969</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9997675883052788</v>
+        <v>0.9985196189041969</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -7011,23 +6228,23 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_11.fasta</t>
+          <t>label_UMGS798_15.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8.484452052900617e-05</v>
+        <v>0.000907878432091578</v>
       </c>
       <c r="C53" t="n">
-        <v>2.220398963068735e-14</v>
+        <v>0.0008463110247972021</v>
       </c>
       <c r="D53" t="n">
-        <v>2.220398963068735e-14</v>
+        <v>2.219946797960815e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9999151554794266</v>
+        <v>0.998245810543089</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9999151554794266</v>
+        <v>0.998245810543089</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -7038,23 +6255,23 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_17.fasta</t>
+          <t>label_UMGS798_21.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.050711242844917e-05</v>
+        <v>0.0008636821472117018</v>
       </c>
       <c r="C54" t="n">
-        <v>2.220418016419024e-14</v>
+        <v>0.000707442565574909</v>
       </c>
       <c r="D54" t="n">
-        <v>2.220418016419024e-14</v>
+        <v>2.219908314812245e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9999494928875271</v>
+        <v>0.9984288752871912</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9999494928875271</v>
+        <v>0.9984288752871912</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -7065,23 +6282,23 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_2.fasta</t>
+          <t>label_UMGS798_28.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.001207200323432729</v>
+        <v>0.0008786442514757273</v>
       </c>
       <c r="C55" t="n">
-        <v>2.219807432676224e-14</v>
+        <v>0.000278932529036192</v>
       </c>
       <c r="D55" t="n">
-        <v>2.219807432676224e-14</v>
+        <v>2.21980737863009e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9987927996765229</v>
+        <v>0.9988424232194658</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9987927996765229</v>
+        <v>0.9988424232194658</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -7092,23 +6309,23 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_25.fasta</t>
+          <t>label_UMGS798_31.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0007509902093906793</v>
+        <v>0.0009020003365421381</v>
       </c>
       <c r="C56" t="n">
-        <v>2.220030105516964e-14</v>
+        <v>0.000156506515569298</v>
       </c>
       <c r="D56" t="n">
-        <v>2.220030105516964e-14</v>
+        <v>2.219860327545896e-14</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9992490097905649</v>
+        <v>0.9989414931478665</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9992490097905649</v>
+        <v>0.9989414931478665</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -7119,23 +6336,23 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_30.fasta</t>
+          <t>label_UMGS798_37.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.002903028066660681</v>
+        <v>0.3401294156154913</v>
       </c>
       <c r="C57" t="n">
-        <v>2.219811283194634e-14</v>
+        <v>0.05933868292031873</v>
       </c>
       <c r="D57" t="n">
-        <v>2.219811283194634e-14</v>
+        <v>1.240188175542849e-11</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9970969719332949</v>
+        <v>0.600531901451788</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9970969719332949</v>
+        <v>0.600531901451788</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -7146,23 +6363,23 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_34.fasta</t>
+          <t>label_UMGS798_45.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.662392838594469e-05</v>
+        <v>0.001148547062569657</v>
       </c>
       <c r="C58" t="n">
-        <v>2.220436821576464e-14</v>
+        <v>3.279515309304479e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>2.220436821576464e-14</v>
+        <v>2.219807885591743e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9999833760715697</v>
+        <v>0.998818657784315</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9999833760715697</v>
+        <v>0.998818657784315</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -7173,23 +6390,23 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_39.fasta</t>
+          <t>label_UMGS798_49.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0002886870344410558</v>
+        <v>0.001575450251465879</v>
       </c>
       <c r="C59" t="n">
-        <v>2.220285934563322e-14</v>
+        <v>7.362663157158202e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>2.220285934563322e-14</v>
+        <v>2.219825055833396e-14</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9997113129655145</v>
+        <v>0.9983509231169403</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9997113129655145</v>
+        <v>0.9983509231169403</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -7200,23 +6417,23 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_50.fasta</t>
+          <t>label_UMGS798_5.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0003067459377224859</v>
+        <v>0.0001508939321276939</v>
       </c>
       <c r="C60" t="n">
-        <v>2.220275927769325e-14</v>
+        <v>0.001259582140691776</v>
       </c>
       <c r="D60" t="n">
-        <v>2.220275927769325e-14</v>
+        <v>2.219828622793714e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9996932540622331</v>
+        <v>0.9985895239271583</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9996932540622331</v>
+        <v>0.9985895239271583</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -7227,23 +6444,23 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_56.fasta</t>
+          <t>label_UMGS798_51.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0002184559631428451</v>
+        <v>0.0008875202830172151</v>
       </c>
       <c r="C61" t="n">
-        <v>2.220324861313637e-14</v>
+        <v>2.369343599763966e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>2.220324861313637e-14</v>
+        <v>2.219941607493279e-14</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9997815440368127</v>
+        <v>0.999088786280963</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9997815440368127</v>
+        <v>0.999088786280963</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -7254,23 +6471,23 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_57.fasta</t>
+          <t>label_UMGS798_54.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0008545626083175596</v>
+        <v>0.03204113658489283</v>
       </c>
       <c r="C62" t="n">
-        <v>2.219972888382351e-14</v>
+        <v>7.661692926763374e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>2.219972888382351e-14</v>
+        <v>7.338226811960135e-05</v>
       </c>
       <c r="E62" t="n">
-        <v>0.999145437391638</v>
+        <v>0.9678088642177199</v>
       </c>
       <c r="F62" t="n">
-        <v>0.999145437391638</v>
+        <v>0.9678088642177199</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -7281,23 +6498,23 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_61.fasta</t>
+          <t>label_UMGS798_55.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0007314889828256996</v>
+        <v>0.002827883890199079</v>
       </c>
       <c r="C63" t="n">
-        <v>2.220040882700572e-14</v>
+        <v>1.615356456113359e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>2.220040882700572e-14</v>
+        <v>2.219809293873888e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9992685110171299</v>
+        <v>0.9971705007533227</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9992685110171299</v>
+        <v>0.9971705007533227</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -7308,23 +6525,23 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_62.fasta</t>
+          <t>label_UMGS798_69.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0009556982480309424</v>
+        <v>0.0006620471179679355</v>
       </c>
       <c r="C64" t="n">
-        <v>2.219917051923316e-14</v>
+        <v>1.661977310401651e-10</v>
       </c>
       <c r="D64" t="n">
-        <v>2.219917051923316e-14</v>
+        <v>2.220079269349325e-14</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9990443017519247</v>
+        <v>0.9993379527158121</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9990443017519247</v>
+        <v>0.9993379527158121</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -7335,23 +6552,23 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_67.fasta</t>
+          <t>label_UMGS798_71.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01040950935540367</v>
+        <v>0.002027843681095585</v>
       </c>
       <c r="C65" t="n">
-        <v>2.219821941573443e-14</v>
+        <v>2.697778893604453e-10</v>
       </c>
       <c r="D65" t="n">
-        <v>2.219821941573443e-14</v>
+        <v>2.219808541858591e-14</v>
       </c>
       <c r="E65" t="n">
-        <v>0.989590490644552</v>
+        <v>0.9979721560491043</v>
       </c>
       <c r="F65" t="n">
-        <v>0.989590490644552</v>
+        <v>0.9979721560491043</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -7362,23 +6579,23 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_72.fasta</t>
+          <t>label_UMGS798_78.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.002835044973881523</v>
+        <v>4.278504958076896e-07</v>
       </c>
       <c r="C66" t="n">
-        <v>2.219811271526298e-14</v>
+        <v>2.220445811745833e-14</v>
       </c>
       <c r="D66" t="n">
-        <v>2.219811271526298e-14</v>
+        <v>2.220445811745833e-14</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9971649550260742</v>
+        <v>0.9999995721494598</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9971649550260742</v>
+        <v>0.9999995721494598</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -7389,23 +6606,23 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_8.fasta</t>
+          <t>label_UMGS798_83.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5.391907652969794e-05</v>
+        <v>1.746607705297259e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>2.220416122991851e-14</v>
+        <v>2.220446049249294e-14</v>
       </c>
       <c r="D67" t="n">
-        <v>2.220416122991851e-14</v>
+        <v>2.220446049249294e-14</v>
       </c>
       <c r="E67" t="n">
-        <v>0.999946080923426</v>
+        <v>0.999999999998209</v>
       </c>
       <c r="F67" t="n">
-        <v>0.999946080923426</v>
+        <v>0.999999999998209</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -7416,23 +6633,23 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_80.fasta</t>
+          <t>label_UMGS798_16.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.00127820788455278</v>
+        <v>5.666990973407234e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>2.219807237681005e-14</v>
+        <v>0.002951305111986993</v>
       </c>
       <c r="D68" t="n">
-        <v>2.219807237681005e-14</v>
+        <v>2.219830492259806e-14</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9987217921154027</v>
+        <v>0.9969920249782568</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9987217921154027</v>
+        <v>0.9969920249782568</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -7443,23 +6660,23 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_82.fasta</t>
+          <t>label_UMGS798_18.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.002204821558582671</v>
+        <v>0.0001638772894542383</v>
       </c>
       <c r="C69" t="n">
-        <v>2.219808545603305e-14</v>
+        <v>0.002522061795438478</v>
       </c>
       <c r="D69" t="n">
-        <v>2.219808545603305e-14</v>
+        <v>2.219870848548428e-14</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9977951784413729</v>
+        <v>0.9973140609150851</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9977951784413729</v>
+        <v>0.9973140609150851</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -7470,23 +6687,23 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_0.fasta</t>
+          <t>label_UMGS798_27.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.00147949003784813</v>
+        <v>6.532951078107129e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>8.910579327270302e-07</v>
+        <v>0.003775175893719865</v>
       </c>
       <c r="D70" t="n">
-        <v>2.219808014401746e-14</v>
+        <v>2.219821253551087e-14</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9985196189041969</v>
+        <v>0.9961594945954769</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9985196189041969</v>
+        <v>0.9961594945954769</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -7497,23 +6714,23 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_15.fasta</t>
+          <t>label_UMGS798_3.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.000907878432091578</v>
+        <v>0.0002697663193204327</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0008463110247972021</v>
+        <v>0.001095794669269482</v>
       </c>
       <c r="D71" t="n">
-        <v>2.219946797960815e-14</v>
+        <v>2.219839230286365e-14</v>
       </c>
       <c r="E71" t="n">
-        <v>0.998245810543089</v>
+        <v>0.9986344390113879</v>
       </c>
       <c r="F71" t="n">
-        <v>0.998245810543089</v>
+        <v>0.9986344390113879</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -7524,23 +6741,23 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_21.fasta</t>
+          <t>label_UMGS798_4.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0008636821472117018</v>
+        <v>0.002385548696684405</v>
       </c>
       <c r="C72" t="n">
-        <v>0.000707442565574909</v>
+        <v>6.434459335682729e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>2.219908314812245e-14</v>
+        <v>2.219832910395996e-14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9984288752871912</v>
+        <v>0.9975501067099365</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9984288752871912</v>
+        <v>0.9975501067099365</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -7551,23 +6768,23 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_28.fasta</t>
+          <t>label_UMGS798_41.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0008786442514757273</v>
+        <v>0.0001649407484358512</v>
       </c>
       <c r="C73" t="n">
-        <v>0.000278932529036192</v>
+        <v>0.002630692134513603</v>
       </c>
       <c r="D73" t="n">
-        <v>2.21980737863009e-14</v>
+        <v>2.219867732041202e-14</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9988424232194658</v>
+        <v>0.9972043671170284</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9988424232194658</v>
+        <v>0.9972043671170284</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -7578,23 +6795,23 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_31.fasta</t>
+          <t>label_UMGS798_42.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0009020003365421381</v>
+        <v>2.677083529064885e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000156506515569298</v>
+        <v>0.0001397805797260503</v>
       </c>
       <c r="D74" t="n">
-        <v>2.219860327545896e-14</v>
+        <v>2.220353640844718e-14</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9989414931478665</v>
+        <v>0.999833448584961</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9989414931478665</v>
+        <v>0.999833448584961</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -7605,23 +6822,23 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_37.fasta</t>
+          <t>label_UMGS798_46.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3401294156154913</v>
+        <v>0.0003465657175184336</v>
       </c>
       <c r="C75" t="n">
-        <v>0.05933868292031873</v>
+        <v>0.001843750969371611</v>
       </c>
       <c r="D75" t="n">
-        <v>1.240188175542849e-11</v>
+        <v>2.219919889620115e-14</v>
       </c>
       <c r="E75" t="n">
-        <v>0.600531901451788</v>
+        <v>0.9978096833130878</v>
       </c>
       <c r="F75" t="n">
-        <v>0.600531901451788</v>
+        <v>0.9978096833130878</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -7632,23 +6849,23 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_45.fasta</t>
+          <t>label_UMGS798_52.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.001148547062569657</v>
+        <v>0.0004330325434797221</v>
       </c>
       <c r="C76" t="n">
-        <v>3.279515309304479e-05</v>
+        <v>0.000605206562486389</v>
       </c>
       <c r="D76" t="n">
-        <v>2.219807885591743e-14</v>
+        <v>2.219871508194188e-14</v>
       </c>
       <c r="E76" t="n">
-        <v>0.998818657784315</v>
+        <v>0.9989617608940117</v>
       </c>
       <c r="F76" t="n">
-        <v>0.998818657784315</v>
+        <v>0.9989617608940117</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -7659,23 +6876,23 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_49.fasta</t>
+          <t>label_UMGS798_58.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001575450251465879</v>
+        <v>0.001987830262099999</v>
       </c>
       <c r="C77" t="n">
-        <v>7.362663157158202e-05</v>
+        <v>0.0002350280600937293</v>
       </c>
       <c r="D77" t="n">
-        <v>2.219825055833396e-14</v>
+        <v>2.21988861918148e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9983509231169403</v>
+        <v>0.9977771416777841</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9983509231169403</v>
+        <v>0.9977771416777841</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -7686,23 +6903,23 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_5.fasta</t>
+          <t>label_UMGS798_60.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0001508939321276939</v>
+        <v>0.00175222836370057</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001259582140691776</v>
+        <v>0.0003877207364783694</v>
       </c>
       <c r="D78" t="n">
-        <v>2.219828622793714e-14</v>
+        <v>2.219928310268189e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9985895239271583</v>
+        <v>0.9978600508997989</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9985895239271583</v>
+        <v>0.9978600508997989</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -7713,23 +6930,23 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_51.fasta</t>
+          <t>label_UMGS798_66.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0008875202830172151</v>
+        <v>0.002334476805851671</v>
       </c>
       <c r="C79" t="n">
-        <v>2.369343599763966e-05</v>
+        <v>1.290355768927482e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>2.219941607493279e-14</v>
+        <v>2.219808916160948e-14</v>
       </c>
       <c r="E79" t="n">
-        <v>0.999088786280963</v>
+        <v>0.9976642328383571</v>
       </c>
       <c r="F79" t="n">
-        <v>0.999088786280963</v>
+        <v>0.9976642328383571</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -7740,23 +6957,23 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_54.fasta</t>
+          <t>label_UMGS798_68.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.03204113658489283</v>
+        <v>0.001792164602841762</v>
       </c>
       <c r="C80" t="n">
-        <v>7.661692926763374e-05</v>
+        <v>5.675811905896782e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>7.338226811960135e-05</v>
+        <v>2.21981054826457e-14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9678088642177199</v>
+        <v>0.9982021595852302</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9678088642177199</v>
+        <v>0.9982021595852302</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -7767,23 +6984,23 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_55.fasta</t>
+          <t>label_UMGS798_70.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.002827883890199079</v>
+        <v>0.002410882377199998</v>
       </c>
       <c r="C81" t="n">
-        <v>1.615356456113359e-06</v>
+        <v>1.572333659448646e-07</v>
       </c>
       <c r="D81" t="n">
-        <v>2.219809293873888e-14</v>
+        <v>2.219809527611172e-14</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9971705007533227</v>
+        <v>0.9975889603894119</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9971705007533227</v>
+        <v>0.9975889603894119</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -7794,23 +7011,23 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_69.fasta</t>
+          <t>label_UMGS798_79.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0006620471179679355</v>
+        <v>0.01060756917436121</v>
       </c>
       <c r="C82" t="n">
-        <v>1.661977310401651e-10</v>
+        <v>4.814536044222839e-07</v>
       </c>
       <c r="D82" t="n">
-        <v>2.220079269349325e-14</v>
+        <v>2.219820558164964e-14</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9993379527158121</v>
+        <v>0.9893919493720122</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9993379527158121</v>
+        <v>0.9893919493720122</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -7821,511 +7038,25 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS798_71.fasta</t>
+          <t>label_UMGS798_81.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.002027843681095585</v>
+        <v>0.009798997196042667</v>
       </c>
       <c r="C83" t="n">
-        <v>2.697778893604453e-10</v>
+        <v>3.248121935667537e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>2.219808541858591e-14</v>
+        <v>0.7949778234483735</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9979721560491043</v>
+        <v>0.1952199312336481</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9979721560491043</v>
+        <v>0.7949778234483735</v>
       </c>
       <c r="G83" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_78.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>4.278504958076896e-07</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2.220445811745833e-14</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2.220445811745833e-14</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.9999995721494598</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.9999995721494598</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_83.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1.746607705297259e-12</v>
-      </c>
-      <c r="C85" t="n">
-        <v>2.220446049249294e-14</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2.220446049249294e-14</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.999999999998209</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.999999999998209</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_16.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>5.666990973407234e-05</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.002951305111986993</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2.219830492259806e-14</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.9969920249782568</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.9969920249782568</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_18.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.0001638772894542383</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.002522061795438478</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.219870848548428e-14</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.9973140609150851</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.9973140609150851</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_27.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>6.532951078107129e-05</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.003775175893719865</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2.219821253551087e-14</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.9961594945954769</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.9961594945954769</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_3.fasta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.0002697663193204327</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.001095794669269482</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2.219839230286365e-14</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.9986344390113879</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.9986344390113879</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_4.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.002385548696684405</v>
-      </c>
-      <c r="C90" t="n">
-        <v>6.434459335682729e-05</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2.219832910395996e-14</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.9975501067099365</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.9975501067099365</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_41.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.0001649407484358512</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.002630692134513603</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2.219867732041202e-14</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.9972043671170284</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.9972043671170284</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_42.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2.677083529064885e-05</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.0001397805797260503</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2.220353640844718e-14</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.999833448584961</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.999833448584961</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_46.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.0003465657175184336</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.001843750969371611</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2.219919889620115e-14</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.9978096833130878</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.9978096833130878</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_52.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.0004330325434797221</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.000605206562486389</v>
-      </c>
-      <c r="D94" t="n">
-        <v>2.219871508194188e-14</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.9989617608940117</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.9989617608940117</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_58.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.001987830262099999</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.0002350280600937293</v>
-      </c>
-      <c r="D95" t="n">
-        <v>2.21988861918148e-14</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.9977771416777841</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.9977771416777841</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_60.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.00175222836370057</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.0003877207364783694</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2.219928310268189e-14</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.9978600508997989</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.9978600508997989</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_66.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.002334476805851671</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.290355768927482e-06</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2.219808916160948e-14</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.9976642328383571</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.9976642328383571</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_68.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.001792164602841762</v>
-      </c>
-      <c r="C98" t="n">
-        <v>5.675811905896782e-06</v>
-      </c>
-      <c r="D98" t="n">
-        <v>2.21981054826457e-14</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.9982021595852302</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.9982021595852302</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_70.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.002410882377199998</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.572333659448646e-07</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2.219809527611172e-14</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.9975889603894119</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.9975889603894119</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_79.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.01060756917436121</v>
-      </c>
-      <c r="C100" t="n">
-        <v>4.814536044222839e-07</v>
-      </c>
-      <c r="D100" t="n">
-        <v>2.219820558164964e-14</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.9893919493720122</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.9893919493720122</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS798_81.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.009798997196042667</v>
-      </c>
-      <c r="C101" t="n">
-        <v>3.248121935667537e-06</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.7949778234483735</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.1952199312336481</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.7949778234483735</v>
-      </c>
-      <c r="G101" t="inlineStr">
         <is>
           <t>s__CAG-180 sp900540295</t>
         </is>
